--- a/RB-Blessing/FMEA.xlsx
+++ b/RB-Blessing/FMEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F982E5-4BF5-4009-94D2-8B04ECFC4762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18167087-6F0B-4546-9B25-7666D6B053C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="329">
   <si>
     <t>1</t>
   </si>
@@ -1149,9 +1149,6 @@
 or first use of new standards without experience</t>
   </si>
   <si>
-    <t>Team:</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -1560,79 +1557,7 @@
     <t>Schwere des Fehlers</t>
   </si>
   <si>
-    <t>Auftrittswahrscheinlichkeit</t>
-  </si>
-  <si>
-    <t>Entdeckungswahrscheinlichkeit</t>
-  </si>
-  <si>
-    <t>Risiko Prioritäts Zahl</t>
-  </si>
-  <si>
-    <t>Aufgaben Priorität</t>
-  </si>
-  <si>
     <t>Zusätzliche Maßnahmen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aktuell ergriffene Vermeidungsmaßnahmen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> - standard preventive controls to lower occurrence probability
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> - Prüfungsmaßnahmen</t>
-    </r>
   </si>
   <si>
     <t>Tragrollen werden nicht transportiert</t>
@@ -1659,15 +1584,6 @@
     <t>Gefährdung der Arbeitssicherheit (Stromschlag)</t>
   </si>
   <si>
-    <t>Wasser in der Dichtung</t>
-  </si>
-  <si>
-    <t>Schlechte Dichtung</t>
-  </si>
-  <si>
-    <t>Elektronischer Antrieb</t>
-  </si>
-  <si>
     <t>Kurzschluss</t>
   </si>
   <si>
@@ -1687,20 +1603,6 @@
   </si>
   <si>
     <t>Einfrieren beweglicher Teile</t>
-  </si>
-  <si>
-    <r>
-      <t>Zu hohe Temperaturunterschiede</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>→Zu schlechte Isolierung</t>
-    </r>
   </si>
   <si>
     <t>Unausreichende Definition der Betriebsbedingungen</t>
@@ -1818,10 +1720,413 @@
     <t>zu geringe Kettenspannung</t>
   </si>
   <si>
-    <t>Zahnräder → zu wenig Öl</t>
+    <t>Entdeckungs-wahrschein-lichkeit</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Auftritts-wahrschein-lichkeit</t>
+  </si>
+  <si>
+    <t>Überfüllung der Mitnehmer</t>
+  </si>
+  <si>
+    <t>Stückgut kann herunterfallen, Gefährdung von Personen</t>
+  </si>
+  <si>
+    <t>Hineinziehen von Kleidung, Haaren oder Gliedmaßen</t>
+  </si>
+  <si>
+    <t>Herunterfallen des Stückgutes</t>
+  </si>
+  <si>
+    <t>Probleme beim Übergang zur nächsten Bearbeitungsstufe (Herunterfallen, Verkeilen, Verklemmen)</t>
+  </si>
+  <si>
+    <t>Motor fällt aus</t>
+  </si>
+  <si>
+    <t>Zahnräderbewegung → zu wenig Öl</t>
+  </si>
+  <si>
+    <t>Verschleiß, Abrieb → zu wenig Öl oder Lebenszeit überschritten</t>
+  </si>
+  <si>
+    <t>Duchhängen des Bandes/Verdrehung</t>
+  </si>
+  <si>
+    <t>zu hohe Belastung auf das Band durch zu hohes Gewicht des Stückgutes</t>
+  </si>
+  <si>
+    <t>Verschiebung der Position der Lagerböcke zueinander</t>
+  </si>
+  <si>
+    <t>Unregelmäßige Beschickung durch vorhergehende Anlagen → Geschwindigkeiten nicht angestimmt</t>
+  </si>
+  <si>
+    <t>zu geringe Umlaufgeschwindigkeit im Vergleich zur Menge der ankommenden Teile</t>
+  </si>
+  <si>
+    <t>Aufenthalt zu nahe an umlaufenden Teilen</t>
+  </si>
+  <si>
+    <t>keine Abschirmung</t>
+  </si>
+  <si>
+    <t>Antriebstrommel wird während Instandhaltungsmaßnahmen fälschlicherweise eingeschaltet</t>
+  </si>
+  <si>
+    <t>Stückgut wird beim Transport beschädigt</t>
+  </si>
+  <si>
+    <t>Quetschung einzelner Teile</t>
+  </si>
+  <si>
+    <t>siehe Punkt 29 bis 32</t>
+  </si>
+  <si>
+    <t>Übergang zu vorherigen/nachfolgenden Anlagen mit zu großem Höhenunterschied</t>
+  </si>
+  <si>
+    <t>Überladung → mangelnde Abstimmung zwischen den Anlagen</t>
+  </si>
+  <si>
+    <t>Mitnehmer hinterlassen Abdrücke</t>
+  </si>
+  <si>
+    <t>mangelnde "Polsterung", falls Stückgut aus sehr weichem Material transportiert wird</t>
+  </si>
+  <si>
+    <t>Zu große Höhenunterschiede</t>
+  </si>
+  <si>
+    <t>Zu großer Abstand/Lücke</t>
+  </si>
+  <si>
+    <t>Nachlässige Einstellung bei der Montage</t>
+  </si>
+  <si>
+    <t>Lockerung der Position der Lagerböcke → Verschieben</t>
+  </si>
+  <si>
+    <t>Feuchtigkeit</t>
+  </si>
+  <si>
+    <t>Zu hohe Temperaturen</t>
+  </si>
+  <si>
+    <t>Falsche Schmierstoffkonsistenz (zu weich)</t>
+  </si>
+  <si>
+    <t>Abdichtung beschädigt</t>
+  </si>
+  <si>
+    <t>Bei Außenanwedung: keine Abschirmung gegen Witterungseinflüse</t>
+  </si>
+  <si>
+    <t>Bei Reinigung verwendetes Wasser gelangt in den Motorraum</t>
+  </si>
+  <si>
+    <t>Außentemperatur überhalb des angegebenen Temperaturbereichs</t>
+  </si>
+  <si>
+    <t>Heißlaufen des Motors → kurzfristige Überlastung</t>
+  </si>
+  <si>
+    <t>Falscher Schmierstoff verwendet</t>
+  </si>
+  <si>
+    <t>Wellendichtringe oder O-Ringe bei der Montage beschädigt</t>
+  </si>
+  <si>
+    <t>Dichtungsstopfen defekt oder fehlt</t>
+  </si>
+  <si>
+    <r>
+      <t>Zu hohe Temperaturunterschiede</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>→Zu schlechte Isolierung</t>
+    </r>
+  </si>
+  <si>
+    <t>mangelnde Abstimmplanung zwischen den Anlagen</t>
+  </si>
+  <si>
+    <t>wackelnde Lagerböcke</t>
+  </si>
+  <si>
+    <t>Ruckartige, unachtsame Bewegungen der Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Zu einseitige Aufgabe, die Konzentrationschwierigkeiten verursacht</t>
+  </si>
+  <si>
+    <t>Überlastung der Mitarbeiter durch zu viele Aufgabe gleichzeitig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aktuell ergriffene Vermeidungsmaßnahmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Standardmäßige Kontrollen, um Fehler zu entdecken
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Prüfungsmaßnahmen</t>
+    </r>
+  </si>
+  <si>
+    <t>P: Sichtkontrolle
+C: Überprüfung des übertragbaren Drehmoments mit Messeinrichtungen</t>
+  </si>
+  <si>
+    <t>P: Sichtkontrolle durch den Planer/Meister in regelmäßigen Abständen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Tests vor Auslieferung
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Berechnung mit Simulationsprogramm</t>
+  </si>
+  <si>
+    <t>P: Dichtung an Umgebungsbedingungen anpassen
+C: *****</t>
+  </si>
+  <si>
+    <t>Wasser kommt durch die Dichtung</t>
+  </si>
+  <si>
+    <t>Reinigung mit übermäßig viel Wasser → keine Reinigungsanweisung vorhanden</t>
+  </si>
+  <si>
+    <t>Schlechte Dichtung → Verschleiß durch Alterung oder Beschädigung bei der Montage</t>
+  </si>
+  <si>
+    <t>P: Dichtheit wichtiger Baugruppen gewährleisten
+C: *****</t>
+  </si>
+  <si>
+    <t>bei Hersteller nach Anwendungstests der Dichtungen erkundigen, Montagewerkzeug zum sachgerechten Auziehen der Dichtungen beilegen</t>
+  </si>
+  <si>
+    <t>Abdichtung empfindlicher Baugruppen vorher testen</t>
+  </si>
+  <si>
+    <t>Poka-Yoke-Prinzip anwenden</t>
+  </si>
+  <si>
+    <t>Isolierung auch bei Alterung so sicher und abseits wichtiger Eingriffsorte gestalten, dass die Wartung ohne Nähe zu elektrischen Leitungen stattfindet</t>
+  </si>
+  <si>
+    <t>Ausreichende Schmierung gewährleisten</t>
+  </si>
+  <si>
+    <t>Wartungsplan erstellen</t>
+  </si>
+  <si>
+    <t>Abschrankung vorsehen</t>
+  </si>
+  <si>
+    <t>Abdichtung auch gegen außen, Reinigungsanleitung deutlich verfassen</t>
+  </si>
+  <si>
+    <t>Schmierstoffkennzeichnung im Wartungsplan und evtl auf dem Gehäuse</t>
+  </si>
+  <si>
+    <t>Bandförderer</t>
+  </si>
+  <si>
+    <t>P: Anschluss nur durch geschultes Personal
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Sichtkontrolle
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Tieftemperaturtests bei verschiedenene Luftfeuchtigkeiten</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Betriebsanleitung von DAUs probelesen lassen</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Tests bei staubiger Umgebung</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Mit dem Kunden Wartungsplan durchsprechen</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Oberflächenkontrolle in der Produktion</t>
+  </si>
+  <si>
+    <t>Rückenschmerzen</t>
+  </si>
+  <si>
+    <t>Wackelkontakt bei der Stromversorgung des Elektromotors</t>
+  </si>
+  <si>
+    <t>Häufiger Umbau</t>
+  </si>
+  <si>
+    <t>P: Begrenzung im Motor vorsehen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: möglichst ähnliches Schmiermittel wie in anderen Anlagen des Kunden verwenden
+C: Mit dem Kunden Wartungsplan durchsprechen</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Kontrolle vor Auslieferung der Antriebstrommel</t>
+  </si>
+  <si>
+    <t>P: Nachspannung der Kette durch Kettenspanner
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Umbau und Überprüfung vor Inbetriebnahme nur durch Fachpersonal</t>
+  </si>
+  <si>
+    <t>Schlechte Einbaulage des Motors→abknickendes Kabel→Beschädigung der Isolierung</t>
+  </si>
+  <si>
+    <t>Aufgaben- Priorität</t>
+  </si>
+  <si>
+    <t>Risiko- Prioritäts- Zahl</t>
+  </si>
+  <si>
+    <t>P: Benutzungsbedingungen definieren
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Kontrollhülsen mitliefern</t>
+  </si>
+  <si>
+    <t>P: CE-Bestimmungen beachten
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Einschalter genau kennzeichnen, Stromlos-Schalten extern möglich machen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Höheneinstellbarkeit durch "Unterlegscheiben" vorsehen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Laufwege abseits des Arbeitsbereichs des Bandes
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Zusammenwirken von Mitnehmer und vorgesehenem Stückgut berücksichtigen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Anziehmomente der Betonanker angeben
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Montageanleitung deutlich vefassen
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Nachziehen der Schrauben als Teil des Wartungsplans</t>
+  </si>
+  <si>
+    <t>P: Zusatzkomponenten bei Anwendung in verschiedenener Umgebung definieren
+C: *****</t>
+  </si>
+  <si>
+    <t>Zu niedriges Band</t>
+  </si>
+  <si>
+    <t>Schmierstoff läuft aus → Umwelt!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unergonomische Arbeitshaltung </t>
+  </si>
+  <si>
+    <t>Keine Möglichkeit, nahe beim Band zu stehen</t>
+  </si>
+  <si>
+    <t>P: Überlastschutz
+C: *****</t>
+  </si>
+  <si>
+    <t>P: Anleitung zur Montage
+C: *****</t>
+  </si>
+  <si>
+    <t>P: *****
+C: Anwendungstests</t>
+  </si>
+  <si>
+    <t>Team: Hofmann, Hopf, Langohr, Tiroch</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +2137,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2276,6 +2581,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3226,7 +3537,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3890,6 +4201,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3922,57 +4257,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="63" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4031,6 +4315,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4039,6 +4329,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4090,6 +4401,18 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4340,18 +4663,169 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Pareto!$B$6:$B$30</c:f>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!RPZRange</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,18 +4852,184 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Pareto!$B$6:$B$35</c:f>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!RPZNRange</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4442,18 +5082,184 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>Pareto!$B$6:$B$35</c:f>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Pareto!kumRange</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47402597402597402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51948051948051943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55194805194805197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57922077922077919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60649350649350653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63376623376623376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66103896103896109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68051948051948052</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7194805194805195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73896103896103893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75565862708719855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76957328385899815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78348794063079774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79740259740259745</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81131725417439704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82523191094619663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.83692022263450838</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84860853432282002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86029684601113177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,7 +5399,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5585,22 +6391,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="44.1" customHeight="1">
       <c r="A1" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="D1" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1">
@@ -6249,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="P1" s="101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="101" t="s">
         <v>39</v>
@@ -6284,7 +7090,7 @@
         <v>43</v>
       </c>
       <c r="K2" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="105">
         <v>10</v>
@@ -6782,7 +7588,7 @@
         <v>43</v>
       </c>
       <c r="K13" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" s="105">
         <v>10</v>
@@ -6920,7 +7726,7 @@
         <v>43</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="105">
         <v>10</v>
@@ -7013,7 +7819,7 @@
         <v>51</v>
       </c>
       <c r="K18" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M18" s="105">
         <v>10</v>
@@ -7151,7 +7957,7 @@
         <v>43</v>
       </c>
       <c r="K21" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="105">
         <v>10</v>
@@ -7379,7 +8185,7 @@
         <v>51</v>
       </c>
       <c r="K26" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="105">
         <v>10</v>
@@ -7517,7 +8323,7 @@
         <v>56</v>
       </c>
       <c r="K29" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M29" s="107">
         <v>7</v>
@@ -7696,7 +8502,7 @@
         <v>43</v>
       </c>
       <c r="K34" s="110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" s="110"/>
       <c r="M34" s="107">
@@ -7868,7 +8674,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M39" s="107">
         <v>7</v>
@@ -7961,7 +8767,7 @@
         <v>43</v>
       </c>
       <c r="K42" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M42" s="107">
         <v>7</v>
@@ -8024,7 +8830,7 @@
         <v>51</v>
       </c>
       <c r="K44" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M44" s="107">
         <v>7</v>
@@ -8117,7 +8923,7 @@
         <v>43</v>
       </c>
       <c r="K47" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M47" s="106">
         <v>7</v>
@@ -8210,7 +9016,7 @@
         <v>43</v>
       </c>
       <c r="K50" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M50" s="106">
         <v>7</v>
@@ -8273,7 +9079,7 @@
         <v>51</v>
       </c>
       <c r="K52" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M52" s="107">
         <v>5</v>
@@ -8366,7 +9172,7 @@
         <v>51</v>
       </c>
       <c r="K55" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M55" s="107">
         <v>5</v>
@@ -8519,7 +9325,7 @@
         <v>51</v>
       </c>
       <c r="K60" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M60" s="107">
         <v>5</v>
@@ -8612,7 +9418,7 @@
         <v>56</v>
       </c>
       <c r="K63" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M63" s="107">
         <v>5</v>
@@ -8765,7 +9571,7 @@
         <v>43</v>
       </c>
       <c r="K68" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M68" s="107">
         <v>5</v>
@@ -8918,7 +9724,7 @@
         <v>43</v>
       </c>
       <c r="K73" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M73" s="107">
         <v>5</v>
@@ -9011,7 +9817,7 @@
         <v>43</v>
       </c>
       <c r="K76" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M76" s="107">
         <v>3</v>
@@ -9074,7 +9880,7 @@
         <v>51</v>
       </c>
       <c r="K78" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M78" s="107">
         <v>3</v>
@@ -9167,7 +9973,7 @@
         <v>43</v>
       </c>
       <c r="K81" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M81" s="107">
         <v>3</v>
@@ -9260,7 +10066,7 @@
         <v>43</v>
       </c>
       <c r="K84" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M84" s="107">
         <v>3</v>
@@ -9323,7 +10129,7 @@
         <v>51</v>
       </c>
       <c r="K86" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M86" s="107">
         <v>3</v>
@@ -9416,7 +10222,7 @@
         <v>51</v>
       </c>
       <c r="K89" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M89" s="107">
         <v>3</v>
@@ -9569,7 +10375,7 @@
         <v>51</v>
       </c>
       <c r="K94" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M94" s="107">
         <v>3</v>
@@ -9662,7 +10468,7 @@
         <v>56</v>
       </c>
       <c r="K97" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M97" s="107">
         <v>3</v>
@@ -9815,7 +10621,7 @@
         <v>43</v>
       </c>
       <c r="K102" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M102" s="107">
         <v>1</v>
@@ -9998,7 +10804,7 @@
         <v>43</v>
       </c>
       <c r="K108" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M108" s="107">
         <v>1</v>
@@ -10091,7 +10897,7 @@
         <v>43</v>
       </c>
       <c r="K111" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M111" s="107">
         <v>1</v>
@@ -10154,7 +10960,7 @@
         <v>51</v>
       </c>
       <c r="K113" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M113" s="107">
         <v>1</v>
@@ -10247,7 +11053,7 @@
         <v>43</v>
       </c>
       <c r="K116" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M116" s="107">
         <v>1</v>
@@ -10340,7 +11146,7 @@
         <v>51</v>
       </c>
       <c r="K119" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M119" s="107">
         <v>1</v>
@@ -10403,7 +11209,7 @@
         <v>56</v>
       </c>
       <c r="K121" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M121" s="107">
         <v>1</v>
@@ -10496,7 +11302,7 @@
         <v>51</v>
       </c>
       <c r="K124" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M124" s="107">
         <v>1</v>
@@ -10585,7 +11391,7 @@
         <v>56</v>
       </c>
       <c r="K129" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="7:11">
@@ -10630,7 +11436,7 @@
         <v>56</v>
       </c>
       <c r="K132" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="7:11">
@@ -10703,7 +11509,7 @@
         <v>56</v>
       </c>
       <c r="K137" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="7:11">
@@ -11095,7 +11901,7 @@
       <c r="B1" s="242"/>
       <c r="C1" s="243"/>
       <c r="D1" s="244" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="245"/>
       <c r="F1" s="245"/>
@@ -11140,7 +11946,7 @@
     </row>
     <row r="3" spans="2:25" ht="158.25" customHeight="1" thickBot="1">
       <c r="B3" s="138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="139"/>
       <c r="D3" s="140">
@@ -11208,13 +12014,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="U3" s="143" t="s">
+      <c r="V3" s="144" t="s">
         <v>128</v>
-      </c>
-      <c r="V3" s="144" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
@@ -12163,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="195" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="170"/>
       <c r="H21" s="170"/>
@@ -12195,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="170"/>
       <c r="H22" s="170"/>
@@ -12219,7 +13025,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="195" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="170"/>
       <c r="H23" s="170"/>
@@ -13943,12 +14749,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15">
       <c r="A1" s="226" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="80.25" customHeight="1">
       <c r="A3" s="246" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="246"/>
       <c r="C3" s="246"/>
@@ -13967,7 +14773,7 @@
     </row>
     <row r="4" spans="1:20" ht="409.5" customHeight="1">
       <c r="A4" s="246" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="246"/>
       <c r="C4" s="246"/>
@@ -14026,18 +14832,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="75.95" customHeight="1">
-      <c r="A1" s="247"/>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
+      <c r="A1" s="255"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
       <c r="M1" s="174"/>
       <c r="N1" s="174"/>
       <c r="O1" s="174"/>
@@ -14056,35 +14862,35 @@
     </row>
     <row r="2" spans="1:28" ht="23.25">
       <c r="A2" s="178"/>
-      <c r="B2" s="248" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253" t="s">
+      <c r="B2" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="261" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
       <c r="AA2" s="177"/>
     </row>
     <row r="3" spans="1:28" ht="162.94999999999999" customHeight="1">
@@ -14100,27 +14906,27 @@
       <c r="J3" s="202"/>
       <c r="K3" s="202"/>
       <c r="L3" s="202"/>
-      <c r="M3" s="256" t="s">
-        <v>156</v>
-      </c>
-      <c r="N3" s="256"/>
-      <c r="O3" s="257"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="260"/>
-      <c r="S3" s="260"/>
-      <c r="T3" s="260"/>
-      <c r="U3" s="260"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
+      <c r="M3" s="264" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="264"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="253"/>
       <c r="AA3" s="179"/>
     </row>
     <row r="4" spans="1:28" ht="45">
       <c r="A4" s="180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="201">
         <v>10</v>
@@ -14156,32 +14962,32 @@
         <v>10</v>
       </c>
       <c r="M4" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="182" t="s">
+      <c r="O4" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="182" t="s">
+      <c r="P4" s="252"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="250"/>
+      <c r="T4" s="250"/>
+      <c r="U4" s="250"/>
+      <c r="V4" s="252"/>
+      <c r="W4" s="252"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="182" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="22.5" customHeight="1">
+      <c r="A5" s="247" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="265"/>
-      <c r="Y4" s="265"/>
-      <c r="Z4" s="265"/>
-      <c r="AA4" s="182" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A5" s="262" t="s">
-        <v>134</v>
       </c>
       <c r="B5" s="183"/>
       <c r="C5" s="183"/>
@@ -14218,12 +15024,12 @@
         <f>SUM(P5:W5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="262" t="s">
-        <v>135</v>
+      <c r="AB5" s="247" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A6" s="263"/>
+      <c r="A6" s="248"/>
       <c r="B6" s="190"/>
       <c r="C6" s="190"/>
       <c r="D6" s="190"/>
@@ -14259,10 +15065,10 @@
         <f t="shared" ref="AA6:AA14" si="2">SUM(P6:W6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="263"/>
+      <c r="AB6" s="248"/>
     </row>
     <row r="7" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A7" s="263"/>
+      <c r="A7" s="248"/>
       <c r="B7" s="190"/>
       <c r="C7" s="190"/>
       <c r="D7" s="190"/>
@@ -14298,10 +15104,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="263"/>
+      <c r="AB7" s="248"/>
     </row>
     <row r="8" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A8" s="263"/>
+      <c r="A8" s="248"/>
       <c r="B8" s="183"/>
       <c r="C8" s="183"/>
       <c r="D8" s="183"/>
@@ -14337,10 +15143,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="263"/>
+      <c r="AB8" s="248"/>
     </row>
     <row r="9" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A9" s="263"/>
+      <c r="A9" s="248"/>
       <c r="B9" s="183"/>
       <c r="C9" s="183"/>
       <c r="D9" s="183"/>
@@ -14376,10 +15182,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="263"/>
+      <c r="AB9" s="248"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="263"/>
+      <c r="A10" s="248"/>
       <c r="B10" s="183"/>
       <c r="C10" s="183"/>
       <c r="D10" s="183"/>
@@ -14415,10 +15221,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="263"/>
+      <c r="AB10" s="248"/>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A11" s="263"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="190"/>
       <c r="C11" s="190"/>
       <c r="D11" s="190"/>
@@ -14454,10 +15260,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="263"/>
+      <c r="AB11" s="248"/>
     </row>
     <row r="12" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A12" s="263"/>
+      <c r="A12" s="248"/>
       <c r="B12" s="183"/>
       <c r="C12" s="183"/>
       <c r="D12" s="183"/>
@@ -14493,10 +15299,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="263"/>
+      <c r="AB12" s="248"/>
     </row>
     <row r="13" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A13" s="263"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="190"/>
       <c r="C13" s="183"/>
       <c r="D13" s="183"/>
@@ -14532,10 +15338,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="263"/>
+      <c r="AB13" s="248"/>
     </row>
     <row r="14" spans="1:28" ht="23.25">
-      <c r="A14" s="263"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="183"/>
       <c r="C14" s="183"/>
       <c r="D14" s="183"/>
@@ -14571,11 +15377,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="263"/>
+      <c r="AB14" s="248"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="191">
         <f>SUM(B5:B14)</f>
@@ -14670,19 +15476,11 @@
       </c>
       <c r="AA15" s="193"/>
       <c r="AB15" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="AB5:AB14"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -14693,6 +15491,14 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="AB5:AB14"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14720,46 +15526,46 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="218" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="197" customFormat="1">
       <c r="A3" s="220" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="198" customFormat="1" ht="11.25">
       <c r="A4" s="221" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="219" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="196" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="C11" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="D11" s="196" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" s="196" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="5.25" customHeight="1"/>
@@ -14891,52 +15697,52 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="196" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -14957,17 +15763,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="218" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="219" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="219" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -14985,8 +15791,8 @@
   <dimension ref="A1:AD162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -14996,10 +15802,11 @@
     <col min="3" max="3" width="5.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="8" customWidth="1"/>
     <col min="5" max="7" width="41.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6" style="28" customWidth="1"/>
-    <col min="9" max="10" width="6" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="27" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="20" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="20" customWidth="1"/>
     <col min="13" max="13" width="44.375" style="8" customWidth="1" outlineLevel="1"/>
     <col min="14" max="16" width="5.625" style="20" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="10" style="79" customWidth="1" outlineLevel="1"/>
@@ -15015,34 +15822,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D1" s="278" t="s">
+      <c r="D1" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="280"/>
+      <c r="E1" s="271" t="s">
+        <v>291</v>
+      </c>
       <c r="F1" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="286" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="288"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
+      <c r="R1" s="278"/>
+      <c r="S1" s="278"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="278"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="279"/>
       <c r="AA1" s="78">
         <v>1</v>
       </c>
@@ -15050,35 +15859,35 @@
         <v>43</v>
       </c>
       <c r="AC1" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D2" s="279"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="290"/>
-      <c r="W2" s="290"/>
-      <c r="X2" s="290"/>
-      <c r="Y2" s="291"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="281"/>
+      <c r="V2" s="281"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="281"/>
+      <c r="Y2" s="282"/>
       <c r="AA2" s="78">
         <v>2</v>
       </c>
@@ -15086,35 +15895,35 @@
         <v>56</v>
       </c>
       <c r="AC2" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D3" s="279"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="290"/>
-      <c r="S3" s="290"/>
-      <c r="T3" s="290"/>
-      <c r="U3" s="290"/>
-      <c r="V3" s="290"/>
-      <c r="W3" s="290"/>
-      <c r="X3" s="290"/>
-      <c r="Y3" s="291"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="282"/>
       <c r="AA3" s="78">
         <v>3</v>
       </c>
@@ -15122,171 +15931,171 @@
         <v>51</v>
       </c>
       <c r="AD3" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D4" s="278" t="s">
+      <c r="D4" s="269" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="283">
+      <c r="E4" s="274">
         <f ca="1">TODAY()</f>
-        <v>43787</v>
-      </c>
-      <c r="F4" s="275"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="290"/>
-      <c r="T4" s="290"/>
-      <c r="U4" s="290"/>
-      <c r="V4" s="290"/>
-      <c r="W4" s="290"/>
-      <c r="X4" s="290"/>
-      <c r="Y4" s="291"/>
+        <v>43794</v>
+      </c>
+      <c r="F4" s="266"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="281"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="282"/>
       <c r="AA4" s="78">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D5" s="279"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="290"/>
-      <c r="S5" s="290"/>
-      <c r="T5" s="290"/>
-      <c r="U5" s="290"/>
-      <c r="V5" s="290"/>
-      <c r="W5" s="290"/>
-      <c r="X5" s="290"/>
-      <c r="Y5" s="291"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="281"/>
+      <c r="N5" s="281"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="281"/>
+      <c r="R5" s="281"/>
+      <c r="S5" s="281"/>
+      <c r="T5" s="281"/>
+      <c r="U5" s="281"/>
+      <c r="V5" s="281"/>
+      <c r="W5" s="281"/>
+      <c r="X5" s="281"/>
+      <c r="Y5" s="282"/>
       <c r="AA5" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="D6" s="279"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="276"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="290"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="290"/>
-      <c r="R6" s="290"/>
-      <c r="S6" s="290"/>
-      <c r="T6" s="290"/>
-      <c r="U6" s="290"/>
-      <c r="V6" s="290"/>
-      <c r="W6" s="290"/>
-      <c r="X6" s="290"/>
-      <c r="Y6" s="291"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="281"/>
+      <c r="U6" s="281"/>
+      <c r="V6" s="281"/>
+      <c r="W6" s="281"/>
+      <c r="X6" s="281"/>
+      <c r="Y6" s="282"/>
       <c r="AA6" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="45.75" customHeight="1">
-      <c r="D7" s="271" t="s">
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="45">
+      <c r="D7" s="295" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="285" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="273" t="s">
+      <c r="F7" s="285" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="273" t="s">
+      <c r="G7" s="285" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="273" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="M7" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="294" t="s">
-        <v>190</v>
-      </c>
-      <c r="N7" s="292" t="s">
+      <c r="N7" s="283" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="292" t="s">
+      <c r="O7" s="283" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="291" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="293" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="294" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="266" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="268" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="269" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" s="296" t="s">
+      <c r="T7" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="T7" s="296" t="s">
+      <c r="U7" s="289" t="s">
         <v>165</v>
       </c>
-      <c r="U7" s="296" t="s">
+      <c r="V7" s="268" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="290" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="277" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="270" t="s">
+      <c r="X7" s="290" t="s">
         <v>167</v>
       </c>
-      <c r="X7" s="270" t="s">
+      <c r="Y7" s="290" t="s">
         <v>168</v>
-      </c>
-      <c r="Y7" s="270" t="s">
-        <v>169</v>
       </c>
       <c r="AA7" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="D8" s="272"/>
-      <c r="E8" s="274"/>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
       <c r="H8" s="29" t="s">
         <v>2</v>
       </c>
@@ -15302,26 +16111,26 @@
       <c r="L8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="295"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="293"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="277"/>
-      <c r="W8" s="270"/>
-      <c r="X8" s="270"/>
-      <c r="Y8" s="270"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="284"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="293"/>
+      <c r="R8" s="294"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="289"/>
+      <c r="U8" s="289"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
       <c r="AA8" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -15349,40 +16158,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A10" s="3" t="str">
+    <row r="10" spans="1:30" s="3" customFormat="1" ht="42.75">
+      <c r="A10" s="3">
         <f>IF(B10&gt;0.1,RANK(B10,B:B,0),"")</f>
-        <v/>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(K10,0.000000001+COUNT($B$1:B9)*0.000000001)</f>
-        <v>1.0000000000000001E-9</v>
+        <v>21.000000001</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
       </c>
       <c r="D10" s="240" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E10" s="240" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F10" s="241" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="91"/>
+        <v>273</v>
+      </c>
+      <c r="H10" s="29">
+        <v>7</v>
+      </c>
+      <c r="I10" s="21">
+        <v>3</v>
+      </c>
+      <c r="J10" s="91">
+        <v>1</v>
+      </c>
       <c r="K10" s="23">
         <f t="shared" ref="K10:K43" si="0">H10*I10*J10</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H10,I10,J10),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M10" s="206"/>
       <c r="N10" s="21"/>
@@ -15407,40 +16222,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="3" t="str">
+    <row r="11" spans="1:30" s="3" customFormat="1" ht="42.75">
+      <c r="A11" s="3">
         <f t="shared" ref="A11:A74" si="1">IF(B11&gt;0.1,RANK(B11,B:B,0),"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="B11" s="239">
         <f>SUM(K11,0.000000001+COUNT($B$1:B10)*0.000000001)</f>
-        <v>2.0000000000000001E-9</v>
+        <v>63.000000002</v>
       </c>
       <c r="C11" s="90">
         <v>2</v>
       </c>
       <c r="D11" s="240" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E11" s="240" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F11" s="240" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="91"/>
+        <v>274</v>
+      </c>
+      <c r="H11" s="29">
+        <v>7</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3</v>
+      </c>
+      <c r="J11" s="91">
+        <v>3</v>
+      </c>
       <c r="K11" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L11" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H11,I11,J11),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M11" s="237"/>
       <c r="N11" s="21"/>
@@ -15463,39 +16284,45 @@
       <c r="Y11" s="213"/>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="B12" s="3">
         <f>SUM(K12,0.000000001+COUNT($B$1:B11)*0.000000001)</f>
-        <v>3.0000000000000004E-9</v>
+        <v>7.0000000030000002</v>
       </c>
       <c r="C12" s="90">
         <v>3</v>
       </c>
       <c r="D12" s="240" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E12" s="240" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F12" s="241" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="91"/>
+        <v>275</v>
+      </c>
+      <c r="H12" s="29">
+        <v>7</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+      <c r="J12" s="91">
+        <v>1</v>
+      </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H12,I12,J12),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M12" s="237"/>
       <c r="N12" s="21"/>
@@ -15518,39 +16345,45 @@
       <c r="Y12" s="213"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(K13,0.000000001+COUNT($B$1:B12)*0.000000001)</f>
-        <v>4.0000000000000002E-9</v>
+        <v>7.0000000040000003</v>
       </c>
       <c r="C13" s="90">
         <v>4</v>
       </c>
       <c r="D13" s="240" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E13" s="240" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F13" s="241" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="91"/>
+        <v>276</v>
+      </c>
+      <c r="H13" s="29">
+        <v>7</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="91">
+        <v>1</v>
+      </c>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H13,I13,J13),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M13" s="237"/>
       <c r="N13" s="21"/>
@@ -15573,253 +16406,329 @@
       <c r="Y13" s="213"/>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" ht="42.75">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
         <f>SUM(K14,0.000000001+COUNT($B$1:B13)*0.000000001)</f>
-        <v>5.0000000000000001E-9</v>
+        <v>490.000000005</v>
       </c>
       <c r="C14" s="90">
         <v>5</v>
       </c>
       <c r="D14" s="240" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E14" s="240" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="F14" s="240" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="91"/>
+        <v>277</v>
+      </c>
+      <c r="H14" s="29">
+        <v>10</v>
+      </c>
+      <c r="I14" s="21">
+        <v>7</v>
+      </c>
+      <c r="J14" s="91">
+        <v>7</v>
+      </c>
       <c r="K14" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="L14" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H14,I14,J14),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="237"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M14" s="316" t="s">
+        <v>282</v>
+      </c>
+      <c r="N14" s="21">
+        <v>10</v>
+      </c>
+      <c r="O14" s="21">
+        <v>3</v>
+      </c>
+      <c r="P14" s="29">
+        <v>3</v>
+      </c>
       <c r="Q14" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R14" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N14,O14,P14),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S14" s="212"/>
       <c r="T14" s="212"/>
       <c r="U14" s="212"/>
-      <c r="V14" s="30"/>
+      <c r="V14" s="30" t="s">
+        <v>175</v>
+      </c>
       <c r="W14" s="213"/>
       <c r="X14" s="213"/>
       <c r="Y14" s="213"/>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" ht="42.75">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
         <f>SUM(K15,0.000000001+COUNT($B$1:B14)*0.000000001)</f>
-        <v>6E-9</v>
+        <v>490.00000000599999</v>
       </c>
       <c r="C15" s="90">
         <v>6</v>
       </c>
       <c r="D15" s="240" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E15" s="240" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="F15" s="240" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="91"/>
+        <v>281</v>
+      </c>
+      <c r="H15" s="29">
+        <v>10</v>
+      </c>
+      <c r="I15" s="21">
+        <v>7</v>
+      </c>
+      <c r="J15" s="91">
+        <v>7</v>
+      </c>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H15,I15,J15),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M15" s="316" t="s">
+        <v>283</v>
+      </c>
+      <c r="N15" s="21">
+        <v>10</v>
+      </c>
+      <c r="O15" s="21">
+        <v>3</v>
+      </c>
+      <c r="P15" s="29">
+        <v>3</v>
+      </c>
       <c r="Q15" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="R15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(CONCATENATE(N15,O15,P15),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
+        <v>L</v>
+      </c>
       <c r="S15" s="212"/>
       <c r="T15" s="212"/>
       <c r="U15" s="212"/>
-      <c r="V15" s="30"/>
+      <c r="V15" s="30" t="s">
+        <v>175</v>
+      </c>
       <c r="W15" s="213"/>
       <c r="X15" s="213"/>
       <c r="Y15" s="213"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="42.75">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B16" s="3">
         <f>SUM(K16,0.000000001+COUNT($B$1:B15)*0.000000001)</f>
-        <v>7.0000000000000006E-9</v>
+        <v>490.00000000699998</v>
       </c>
       <c r="C16" s="90">
         <v>7</v>
       </c>
       <c r="D16" s="240" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E16" s="240" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F16" s="240" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="H16" s="29">
+        <v>10</v>
+      </c>
+      <c r="I16" s="21">
+        <v>7</v>
+      </c>
+      <c r="J16" s="91">
+        <v>7</v>
+      </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="L16" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H16,I16,J16),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M16" s="316" t="s">
+        <v>284</v>
+      </c>
+      <c r="N16" s="21">
+        <v>10</v>
+      </c>
+      <c r="O16" s="21">
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <v>1</v>
+      </c>
       <c r="Q16" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N16,O16,P16),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S16" s="212"/>
       <c r="T16" s="212"/>
       <c r="U16" s="212"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30" t="s">
+        <v>175</v>
+      </c>
       <c r="W16" s="213"/>
       <c r="X16" s="213"/>
       <c r="Y16" s="213"/>
     </row>
     <row r="17" spans="1:25" s="3" customFormat="1" ht="42.75">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
         <f>SUM(K17,0.000000001+COUNT($B$1:B16)*0.000000001)</f>
-        <v>8.0000000000000005E-9</v>
+        <v>490.00000000799997</v>
       </c>
       <c r="C17" s="90">
         <v>8</v>
       </c>
       <c r="D17" s="240" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E17" s="240" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F17" s="240" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="91"/>
+        <v>293</v>
+      </c>
+      <c r="H17" s="29">
+        <v>10</v>
+      </c>
+      <c r="I17" s="21">
+        <v>7</v>
+      </c>
+      <c r="J17" s="91">
+        <v>7</v>
+      </c>
       <c r="K17" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="L17" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H17,I17,J17),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="94"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M17" s="316" t="s">
+        <v>285</v>
+      </c>
+      <c r="N17" s="21">
+        <v>10</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="29">
+        <v>3</v>
+      </c>
       <c r="Q17" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="R17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(CONCATENATE(N17,O17,P17),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
+        <v>L</v>
+      </c>
       <c r="S17" s="212"/>
       <c r="T17" s="212"/>
       <c r="U17" s="212"/>
-      <c r="V17" s="30"/>
+      <c r="V17" s="30" t="s">
+        <v>175</v>
+      </c>
       <c r="W17" s="213"/>
       <c r="X17" s="213"/>
       <c r="Y17" s="213"/>
     </row>
-    <row r="18" spans="1:25" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A18" s="3" t="str">
+    <row r="18" spans="1:25" s="3" customFormat="1" ht="42.75">
+      <c r="A18" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <f>SUM(K18,0.000000001+COUNT($B$1:B17)*0.000000001)</f>
-        <v>9.0000000000000012E-9</v>
+        <v>21.000000009000001</v>
       </c>
       <c r="C18" s="90">
         <v>9</v>
       </c>
       <c r="D18" s="240" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E18" s="240" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="240" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="F18" s="315" t="s">
+        <v>266</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="91"/>
+        <v>294</v>
+      </c>
+      <c r="H18" s="29">
+        <v>3</v>
+      </c>
+      <c r="I18" s="21">
+        <v>7</v>
+      </c>
+      <c r="J18" s="91">
+        <v>1</v>
+      </c>
       <c r="K18" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L18" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H18,I18,J18),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M18" s="94"/>
       <c r="N18" s="21"/>
@@ -15841,40 +16750,46 @@
       <c r="X18" s="213"/>
       <c r="Y18" s="213"/>
     </row>
-    <row r="19" spans="1:25" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="3" t="str">
+    <row r="19" spans="1:25" s="3" customFormat="1" ht="42.75">
+      <c r="A19" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>54</v>
       </c>
       <c r="B19" s="3">
         <f>SUM(K19,0.000000001+COUNT($B$1:B18)*0.000000001)</f>
-        <v>1.0000000000000002E-8</v>
+        <v>3.0000000099999999</v>
       </c>
       <c r="C19" s="90">
         <v>10</v>
       </c>
       <c r="D19" s="240" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E19" s="240" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F19" s="240" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="91"/>
+        <v>295</v>
+      </c>
+      <c r="H19" s="29">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19" s="91">
+        <v>1</v>
+      </c>
       <c r="K19" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H19,I19,J19),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M19" s="237"/>
       <c r="N19" s="21"/>
@@ -15897,39 +16812,45 @@
       <c r="Y19" s="213"/>
     </row>
     <row r="20" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A20" s="3" t="str">
+      <c r="A20" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>45</v>
       </c>
       <c r="B20" s="3">
         <f>SUM(K20,0.000000001+COUNT($B$1:B19)*0.000000001)</f>
-        <v>1.1000000000000001E-8</v>
+        <v>9.0000000109999991</v>
       </c>
       <c r="C20" s="90">
         <v>11</v>
       </c>
       <c r="D20" s="240" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E20" s="240" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F20" s="240" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="91"/>
+        <v>296</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3</v>
+      </c>
+      <c r="J20" s="91">
+        <v>1</v>
+      </c>
       <c r="K20" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L20" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H20,I20,J20),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M20" s="217"/>
       <c r="N20" s="21"/>
@@ -15951,40 +16872,46 @@
       <c r="X20" s="213"/>
       <c r="Y20" s="213"/>
     </row>
-    <row r="21" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A21" s="3" t="str">
+    <row r="21" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A21" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="B21" s="3">
         <f>SUM(K21,0.000000001+COUNT($B$1:B20)*0.000000001)</f>
-        <v>1.2000000000000002E-8</v>
+        <v>9.0000000119999992</v>
       </c>
       <c r="C21" s="90">
         <v>12</v>
       </c>
       <c r="D21" s="240" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E21" s="240" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F21" s="240" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="H21" s="29">
+        <v>3</v>
+      </c>
+      <c r="I21" s="21">
+        <v>3</v>
+      </c>
+      <c r="J21" s="91">
+        <v>1</v>
+      </c>
       <c r="K21" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L21" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H21,I21,J21),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M21" s="238"/>
       <c r="N21" s="21"/>
@@ -16006,40 +16933,46 @@
       <c r="X21" s="213"/>
       <c r="Y21" s="213"/>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A22" s="3" t="str">
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A22" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <f>SUM(K22,0.000000001+COUNT($B$1:B21)*0.000000001)</f>
-        <v>1.3000000000000002E-8</v>
+        <v>75.000000013000005</v>
       </c>
       <c r="C22" s="90">
         <v>13</v>
       </c>
       <c r="D22" s="240" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E22" s="240" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F22" s="240" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="91"/>
+      <c r="H22" s="29">
+        <v>5</v>
+      </c>
+      <c r="I22" s="21">
+        <v>3</v>
+      </c>
+      <c r="J22" s="91">
+        <v>5</v>
+      </c>
       <c r="K22" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L22" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H22,I22,J22),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="21"/>
@@ -16061,40 +16994,46 @@
       <c r="X22" s="213"/>
       <c r="Y22" s="213"/>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A23" s="3" t="str">
+    <row r="23" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A23" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <f>SUM(K23,0.000000001+COUNT($B$1:B22)*0.000000001)</f>
-        <v>1.4000000000000001E-8</v>
+        <v>75.000000013999994</v>
       </c>
       <c r="C23" s="90">
         <v>14</v>
       </c>
       <c r="D23" s="240" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E23" s="240" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F23" s="240" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="91"/>
+        <v>274</v>
+      </c>
+      <c r="H23" s="29">
+        <v>5</v>
+      </c>
+      <c r="I23" s="21">
+        <v>3</v>
+      </c>
+      <c r="J23" s="91">
+        <v>5</v>
+      </c>
       <c r="K23" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L23" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H23,I23,J23),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="21"/>
@@ -16117,39 +17056,45 @@
       <c r="Y23" s="213"/>
     </row>
     <row r="24" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
         <f>SUM(K24,0.000000001+COUNT($B$1:B23)*0.000000001)</f>
-        <v>1.5000000000000002E-8</v>
+        <v>25.000000015000001</v>
       </c>
       <c r="C24" s="90">
         <v>15</v>
       </c>
       <c r="D24" s="240" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E24" s="240" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F24" s="240" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="91"/>
+        <v>298</v>
+      </c>
+      <c r="H24" s="29">
+        <v>5</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+      <c r="J24" s="91">
+        <v>5</v>
+      </c>
       <c r="K24" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H24,I24,J24),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="21"/>
@@ -16172,39 +17117,45 @@
       <c r="Y24" s="213"/>
     </row>
     <row r="25" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <f>SUM(K25,0.000000001+COUNT($B$1:B24)*0.000000001)</f>
-        <v>1.6000000000000001E-8</v>
+        <v>75.000000016000001</v>
       </c>
       <c r="C25" s="90">
         <v>16</v>
       </c>
       <c r="D25" s="240" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E25" s="240" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F25" s="240" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="91"/>
+        <v>302</v>
+      </c>
+      <c r="H25" s="29">
+        <v>5</v>
+      </c>
+      <c r="I25" s="21">
+        <v>3</v>
+      </c>
+      <c r="J25" s="91">
+        <v>5</v>
+      </c>
       <c r="K25" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L25" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H25,I25,J25),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="21"/>
@@ -16226,40 +17177,46 @@
       <c r="X25" s="214"/>
       <c r="Y25" s="213"/>
     </row>
-    <row r="26" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A26" s="3" t="str">
+    <row r="26" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A26" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <f>SUM(K26,0.000000001+COUNT($B$1:B25)*0.000000001)</f>
-        <v>1.7E-8</v>
+        <v>45.000000016999998</v>
       </c>
       <c r="C26" s="90">
         <v>17</v>
       </c>
       <c r="D26" s="240" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E26" s="240" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F26" s="240" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="H26" s="29">
+        <v>5</v>
+      </c>
+      <c r="I26" s="21">
+        <v>3</v>
+      </c>
+      <c r="J26" s="91">
+        <v>3</v>
+      </c>
       <c r="K26" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L26" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H26,I26,J26),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="21"/>
@@ -16281,40 +17238,46 @@
       <c r="X26" s="214"/>
       <c r="Y26" s="213"/>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="3" t="str">
+    <row r="27" spans="1:25" s="1" customFormat="1" ht="57">
+      <c r="A27" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <f>SUM(K27,0.000000001+COUNT($B$1:B26)*0.000000001)</f>
-        <v>1.7999999999999999E-8</v>
+        <v>5.0000000179999997</v>
       </c>
       <c r="C27" s="90">
         <v>18</v>
       </c>
       <c r="D27" s="240" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E27" s="240" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F27" s="240" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="91"/>
+        <v>303</v>
+      </c>
+      <c r="H27" s="29">
+        <v>5</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+      <c r="J27" s="91">
+        <v>1</v>
+      </c>
       <c r="K27" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H27,I27,J27),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="21"/>
@@ -16336,38 +17299,46 @@
       <c r="X27" s="214"/>
       <c r="Y27" s="213"/>
     </row>
-    <row r="28" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A28" s="3" t="str">
+    <row r="28" spans="1:25" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="A28" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <f>SUM(K28,0.000000001+COUNT($B$1:B27)*0.000000001)</f>
-        <v>1.9000000000000001E-8</v>
-      </c>
-      <c r="C28" s="90"/>
+        <v>45.000000018999998</v>
+      </c>
+      <c r="C28" s="90">
+        <v>19</v>
+      </c>
       <c r="D28" s="240" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E28" s="240" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F28" s="240" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="91"/>
+        <v>304</v>
+      </c>
+      <c r="H28" s="29">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>3</v>
+      </c>
+      <c r="J28" s="91">
+        <v>3</v>
+      </c>
       <c r="K28" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L28" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H28,I28,J28),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="21"/>
@@ -16389,38 +17360,46 @@
       <c r="X28" s="214"/>
       <c r="Y28" s="213"/>
     </row>
-    <row r="29" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="3" t="str">
+    <row r="29" spans="1:25" s="1" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A29" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
         <f>SUM(K29,0.000000001+COUNT($B$1:B28)*0.000000001)</f>
-        <v>2E-8</v>
-      </c>
-      <c r="C29" s="90"/>
+        <v>45.000000020000002</v>
+      </c>
+      <c r="C29" s="90">
+        <v>20</v>
+      </c>
       <c r="D29" s="240" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E29" s="240" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F29" s="240" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="91"/>
+        <v>304</v>
+      </c>
+      <c r="H29" s="29">
+        <v>5</v>
+      </c>
+      <c r="I29" s="21">
+        <v>3</v>
+      </c>
+      <c r="J29" s="91">
+        <v>3</v>
+      </c>
       <c r="K29" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L29" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H29,I29,J29),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="21"/>
@@ -16442,38 +17421,46 @@
       <c r="X29" s="214"/>
       <c r="Y29" s="213"/>
     </row>
-    <row r="30" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A30" s="3" t="str">
+    <row r="30" spans="1:25" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A30" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="B30" s="3">
         <f>SUM(K30,0.000000001+COUNT($B$1:B29)*0.000000001)</f>
-        <v>2.0999999999999999E-8</v>
-      </c>
-      <c r="C30" s="90"/>
+        <v>5.000000021</v>
+      </c>
+      <c r="C30" s="90">
+        <v>21</v>
+      </c>
       <c r="D30" s="240" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E30" s="240" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F30" s="240" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="91"/>
+        <v>305</v>
+      </c>
+      <c r="H30" s="29">
+        <v>5</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1</v>
+      </c>
+      <c r="J30" s="91">
+        <v>1</v>
+      </c>
       <c r="K30" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H30,I30,J30),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="21"/>
@@ -16495,38 +17482,46 @@
       <c r="X30" s="214"/>
       <c r="Y30" s="213"/>
     </row>
-    <row r="31" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A31" s="3" t="str">
+    <row r="31" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A31" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>43</v>
       </c>
       <c r="B31" s="3">
         <f>SUM(K31,0.000000001+COUNT($B$1:B30)*0.000000001)</f>
-        <v>2.2000000000000002E-8</v>
-      </c>
-      <c r="C31" s="90"/>
+        <v>15.000000022</v>
+      </c>
+      <c r="C31" s="90">
+        <v>22</v>
+      </c>
       <c r="D31" s="240" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E31" s="240" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F31" s="240" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="91"/>
+        <v>274</v>
+      </c>
+      <c r="H31" s="29">
+        <v>5</v>
+      </c>
+      <c r="I31" s="21">
+        <v>3</v>
+      </c>
+      <c r="J31" s="91">
+        <v>1</v>
+      </c>
       <c r="K31" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L31" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H31,I31,J31),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="21"/>
@@ -16548,34 +17543,46 @@
       <c r="X31" s="214"/>
       <c r="Y31" s="213"/>
     </row>
-    <row r="32" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A32" s="3" t="str">
+    <row r="32" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A32" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
         <f>SUM(K32,0.000000001+COUNT($B$1:B31)*0.000000001)</f>
-        <v>2.3000000000000001E-8</v>
-      </c>
-      <c r="C32" s="90"/>
+        <v>75.000000022999998</v>
+      </c>
+      <c r="C32" s="90">
+        <v>23</v>
+      </c>
       <c r="D32" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
+        <v>216</v>
+      </c>
+      <c r="E32" s="240" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="240" t="s">
+        <v>301</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="91"/>
+        <v>306</v>
+      </c>
+      <c r="H32" s="29">
+        <v>5</v>
+      </c>
+      <c r="I32" s="21">
+        <v>5</v>
+      </c>
+      <c r="J32" s="91">
+        <v>3</v>
+      </c>
       <c r="K32" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L32" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H32,I32,J32),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="21"/>
@@ -16597,34 +17604,46 @@
       <c r="X32" s="214"/>
       <c r="Y32" s="213"/>
     </row>
-    <row r="33" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="3" t="str">
+    <row r="33" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A33" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>51</v>
       </c>
       <c r="B33" s="3">
         <f>SUM(K33,0.000000001+COUNT($B$1:B32)*0.000000001)</f>
-        <v>2.4E-8</v>
-      </c>
-      <c r="C33" s="90"/>
+        <v>5.0000000240000002</v>
+      </c>
+      <c r="C33" s="90">
+        <v>24</v>
+      </c>
       <c r="D33" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
+        <v>216</v>
+      </c>
+      <c r="E33" s="240" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="240" t="s">
+        <v>307</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="91"/>
+        <v>306</v>
+      </c>
+      <c r="H33" s="29">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21">
+        <v>1</v>
+      </c>
+      <c r="J33" s="91">
+        <v>1</v>
+      </c>
       <c r="K33" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H33,I33,J33),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="21"/>
@@ -16647,90 +17666,116 @@
       <c r="Y33" s="213"/>
     </row>
     <row r="34" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A34" s="3" t="str">
+      <c r="A34" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>37</v>
       </c>
       <c r="B34" s="3">
         <f>SUM(K34,0.000000001+COUNT($B$1:B33)*0.000000001)</f>
-        <v>2.5000000000000002E-8</v>
-      </c>
-      <c r="C34" s="90"/>
+        <v>30.000000024999999</v>
+      </c>
+      <c r="C34" s="90">
+        <v>25</v>
+      </c>
       <c r="D34" s="240" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E34" s="240" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F34" s="240" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="91"/>
+      <c r="H34" s="29">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21">
+        <v>10</v>
+      </c>
+      <c r="J34" s="91">
+        <v>1</v>
+      </c>
       <c r="K34" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L34" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H34,I34,J34),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="N34" s="21">
+        <v>3</v>
+      </c>
+      <c r="O34" s="21">
+        <v>7</v>
+      </c>
+      <c r="P34" s="29">
+        <v>1</v>
+      </c>
       <c r="Q34" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R34" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N34,O34,P34),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="S34" s="212"/>
       <c r="T34" s="212"/>
       <c r="U34" s="212"/>
-      <c r="V34" s="207"/>
+      <c r="V34" s="207" t="s">
+        <v>176</v>
+      </c>
       <c r="W34" s="214"/>
       <c r="X34" s="214"/>
       <c r="Y34" s="213"/>
     </row>
-    <row r="35" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A35" s="3" t="str">
+    <row r="35" spans="1:25" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A35" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
         <f>SUM(K35,0.000000001+COUNT($B$1:B34)*0.000000001)</f>
-        <v>2.6000000000000001E-8</v>
-      </c>
-      <c r="C35" s="90"/>
+        <v>21.000000025999999</v>
+      </c>
+      <c r="C35" s="90">
+        <v>26</v>
+      </c>
       <c r="D35" s="240" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E35" s="240" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F35" s="240" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="91"/>
+        <v>305</v>
+      </c>
+      <c r="H35" s="29">
+        <v>3</v>
+      </c>
+      <c r="I35" s="21">
+        <v>7</v>
+      </c>
+      <c r="J35" s="91">
+        <v>1</v>
+      </c>
       <c r="K35" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L35" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H35,I35,J35),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="21"/>
@@ -16752,38 +17797,46 @@
       <c r="X35" s="214"/>
       <c r="Y35" s="213"/>
     </row>
-    <row r="36" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A36" s="3" t="str">
+    <row r="36" spans="1:25" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A36" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="B36" s="3">
         <f>SUM(K36,0.000000001+COUNT($B$1:B35)*0.000000001)</f>
-        <v>2.7E-8</v>
-      </c>
-      <c r="C36" s="90"/>
+        <v>63.000000026999999</v>
+      </c>
+      <c r="C36" s="90">
+        <v>27</v>
+      </c>
       <c r="D36" s="240" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E36" s="240" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F36" s="240" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="H36" s="29">
+        <v>3</v>
+      </c>
+      <c r="I36" s="21">
+        <v>7</v>
+      </c>
+      <c r="J36" s="91">
+        <v>3</v>
+      </c>
       <c r="K36" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L36" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H36,I36,J36),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="21"/>
@@ -16805,83 +17858,117 @@
       <c r="X36" s="214"/>
       <c r="Y36" s="213"/>
     </row>
-    <row r="37" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A37" s="3" t="str">
+    <row r="37" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A37" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="B37" s="3">
         <f>SUM(K37,0.000000001+COUNT($B$1:B36)*0.000000001)</f>
-        <v>2.7999999999999999E-8</v>
-      </c>
-      <c r="C37" s="90"/>
+        <v>90.000000028000002</v>
+      </c>
+      <c r="C37" s="90">
+        <v>28</v>
+      </c>
       <c r="D37" s="240" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E37" s="240" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="240"/>
+        <v>223</v>
+      </c>
+      <c r="F37" s="240" t="s">
+        <v>235</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="91"/>
+        <v>297</v>
+      </c>
+      <c r="H37" s="29">
+        <v>3</v>
+      </c>
+      <c r="I37" s="21">
+        <v>10</v>
+      </c>
+      <c r="J37" s="91">
+        <v>3</v>
+      </c>
       <c r="K37" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L37" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H37,I37,J37),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="N37" s="21">
+        <v>3</v>
+      </c>
+      <c r="O37" s="21">
+        <v>5</v>
+      </c>
+      <c r="P37" s="29">
+        <v>3</v>
+      </c>
       <c r="Q37" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="R37" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N37,O37,P37),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S37" s="212"/>
       <c r="T37" s="212"/>
       <c r="U37" s="212"/>
-      <c r="V37" s="207"/>
+      <c r="V37" s="207" t="s">
+        <v>175</v>
+      </c>
       <c r="W37" s="214"/>
       <c r="X37" s="214"/>
       <c r="Y37" s="213"/>
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A38" s="3" t="str">
+      <c r="A38" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="B38" s="3">
         <f>SUM(K38,0.000000001+COUNT($B$1:B37)*0.000000001)</f>
-        <v>2.9000000000000002E-8</v>
-      </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="240"/>
-      <c r="F38" s="240"/>
+        <v>147.00000002900001</v>
+      </c>
+      <c r="C38" s="90">
+        <v>29</v>
+      </c>
+      <c r="D38" s="240" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="314" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="240" t="s">
+        <v>237</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="91"/>
+        <v>310</v>
+      </c>
+      <c r="H38" s="29">
+        <v>7</v>
+      </c>
+      <c r="I38" s="21">
+        <v>7</v>
+      </c>
+      <c r="J38" s="91">
+        <v>3</v>
+      </c>
       <c r="K38" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L38" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H38,I38,J38),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="21"/>
@@ -16904,31 +17991,45 @@
       <c r="Y38" s="213"/>
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A39" s="3" t="str">
+      <c r="A39" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="B39" s="3">
         <f>SUM(K39,0.000000001+COUNT($B$1:B38)*0.000000001)</f>
-        <v>3.0000000000000004E-8</v>
-      </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
+        <v>147.00000003</v>
+      </c>
+      <c r="C39" s="90">
+        <v>30</v>
+      </c>
+      <c r="D39" s="240" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="314" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="240" t="s">
+        <v>238</v>
+      </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="91"/>
+        <v>311</v>
+      </c>
+      <c r="H39" s="29">
+        <v>7</v>
+      </c>
+      <c r="I39" s="21">
+        <v>7</v>
+      </c>
+      <c r="J39" s="91">
+        <v>3</v>
+      </c>
       <c r="K39" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L39" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H39,I39,J39),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="21"/>
@@ -16950,32 +18051,46 @@
       <c r="X39" s="214"/>
       <c r="Y39" s="213"/>
     </row>
-    <row r="40" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A40" s="3" t="str">
+    <row r="40" spans="1:25" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A40" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
         <f>SUM(K40,0.000000001+COUNT($B$1:B39)*0.000000001)</f>
-        <v>3.1000000000000006E-8</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="240"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="240"/>
+        <v>63.000000030999999</v>
+      </c>
+      <c r="C40" s="90">
+        <v>31</v>
+      </c>
+      <c r="D40" s="240" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="240" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="240" t="s">
+        <v>239</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="91"/>
+      <c r="H40" s="29">
+        <v>7</v>
+      </c>
+      <c r="I40" s="21">
+        <v>3</v>
+      </c>
+      <c r="J40" s="91">
+        <v>3</v>
+      </c>
       <c r="K40" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L40" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H40,I40,J40),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="21"/>
@@ -16998,31 +18113,45 @@
       <c r="Y40" s="213"/>
     </row>
     <row r="41" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A41" s="3" t="str">
+      <c r="A41" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="B41" s="3">
         <f>SUM(K41,0.000000001+COUNT($B$1:B40)*0.000000001)</f>
-        <v>3.2000000000000002E-8</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
+        <v>63.000000032000003</v>
+      </c>
+      <c r="C41" s="90">
+        <v>32</v>
+      </c>
+      <c r="D41" s="240" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="240" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="240" t="s">
+        <v>240</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="91"/>
+      <c r="H41" s="29">
+        <v>7</v>
+      </c>
+      <c r="I41" s="21">
+        <v>3</v>
+      </c>
+      <c r="J41" s="91">
+        <v>3</v>
+      </c>
       <c r="K41" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L41" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H41,I41,J41),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="21"/>
@@ -17045,31 +18174,45 @@
       <c r="Y41" s="213"/>
     </row>
     <row r="42" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A42" s="3" t="str">
+      <c r="A42" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="B42" s="3">
         <f>SUM(K42,0.000000001+COUNT($B$1:B41)*0.000000001)</f>
-        <v>3.3000000000000004E-8</v>
-      </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="240"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="240"/>
+        <v>50.000000032999999</v>
+      </c>
+      <c r="C42" s="90">
+        <v>33</v>
+      </c>
+      <c r="D42" s="240" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="240" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="240" t="s">
+        <v>242</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="91"/>
+        <v>312</v>
+      </c>
+      <c r="H42" s="29">
+        <v>10</v>
+      </c>
+      <c r="I42" s="21">
+        <v>5</v>
+      </c>
+      <c r="J42" s="91">
+        <v>1</v>
+      </c>
       <c r="K42" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L42" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H42,I42,J42),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="21"/>
@@ -17091,79 +18234,117 @@
       <c r="X42" s="214"/>
       <c r="Y42" s="213"/>
     </row>
-    <row r="43" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A43" s="3" t="str">
+    <row r="43" spans="1:25" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A43" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="B43" s="3">
         <f>SUM(K43,0.000000001+COUNT($B$1:B42)*0.000000001)</f>
-        <v>3.4000000000000007E-8</v>
-      </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="240"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="240"/>
+        <v>350.00000003399998</v>
+      </c>
+      <c r="C43" s="90">
+        <v>34</v>
+      </c>
+      <c r="D43" s="240" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="240" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="240" t="s">
+        <v>243</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="91"/>
+        <v>313</v>
+      </c>
+      <c r="H43" s="29">
+        <v>10</v>
+      </c>
+      <c r="I43" s="21">
+        <v>7</v>
+      </c>
+      <c r="J43" s="91">
+        <v>5</v>
+      </c>
       <c r="K43" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L43" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H43,I43,J43),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" s="21">
+        <v>7</v>
+      </c>
+      <c r="O43" s="21">
+        <v>3</v>
+      </c>
+      <c r="P43" s="29">
+        <v>3</v>
+      </c>
       <c r="Q43" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="R43" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N43,O43,P43),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S43" s="212"/>
       <c r="T43" s="212"/>
       <c r="U43" s="212"/>
-      <c r="V43" s="207"/>
+      <c r="V43" s="207" t="s">
+        <v>175</v>
+      </c>
       <c r="W43" s="214"/>
       <c r="X43" s="214"/>
       <c r="Y43" s="213"/>
     </row>
     <row r="44" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A44" s="3" t="str">
+      <c r="A44" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>36</v>
       </c>
       <c r="B44" s="3">
         <f>SUM(K44,0.000000001+COUNT($B$1:B43)*0.000000001)</f>
-        <v>3.5000000000000002E-8</v>
-      </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
+        <v>30.000000034999999</v>
+      </c>
+      <c r="C44" s="90">
+        <v>35</v>
+      </c>
+      <c r="D44" s="240" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="240" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="240" t="s">
+        <v>270</v>
+      </c>
       <c r="G44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="91"/>
+      <c r="H44" s="29">
+        <v>10</v>
+      </c>
+      <c r="I44" s="21">
+        <v>3</v>
+      </c>
+      <c r="J44" s="91">
+        <v>1</v>
+      </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:K75" si="3">H44*I44*J44</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L44" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H44,I44,J44),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="21"/>
@@ -17186,31 +18367,45 @@
       <c r="Y44" s="213"/>
     </row>
     <row r="45" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A45" s="3" t="str">
+      <c r="A45" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="B45" s="3">
         <f>SUM(K45,0.000000001+COUNT($B$1:B44)*0.000000001)</f>
-        <v>3.6000000000000005E-8</v>
-      </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="240"/>
-      <c r="E45" s="240"/>
-      <c r="F45" s="240"/>
+        <v>30.000000035999999</v>
+      </c>
+      <c r="C45" s="90">
+        <v>36</v>
+      </c>
+      <c r="D45" s="240" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="240" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="240" t="s">
+        <v>271</v>
+      </c>
       <c r="G45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="91"/>
+      <c r="H45" s="29">
+        <v>10</v>
+      </c>
+      <c r="I45" s="21">
+        <v>3</v>
+      </c>
+      <c r="J45" s="91">
+        <v>1</v>
+      </c>
       <c r="K45" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L45" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H45,I45,J45),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="21"/>
@@ -17233,31 +18428,45 @@
       <c r="Y45" s="213"/>
     </row>
     <row r="46" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A46" s="3" t="str">
+      <c r="A46" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="B46" s="3">
         <f>SUM(K46,0.000000001+COUNT($B$1:B45)*0.000000001)</f>
-        <v>3.7000000000000007E-8</v>
-      </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="240"/>
-      <c r="E46" s="240"/>
-      <c r="F46" s="240"/>
+        <v>105.00000003700001</v>
+      </c>
+      <c r="C46" s="90">
+        <v>37</v>
+      </c>
+      <c r="D46" s="240" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="240" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="240" t="s">
+        <v>248</v>
+      </c>
       <c r="G46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="91"/>
+      <c r="H46" s="29">
+        <v>7</v>
+      </c>
+      <c r="I46" s="21">
+        <v>5</v>
+      </c>
+      <c r="J46" s="91">
+        <v>3</v>
+      </c>
       <c r="K46" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L46" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H46,I46,J46),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="21"/>
@@ -17279,32 +18488,46 @@
       <c r="X46" s="214"/>
       <c r="Y46" s="213"/>
     </row>
-    <row r="47" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A47" s="3" t="str">
+    <row r="47" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A47" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="B47" s="3">
         <f>SUM(K47,0.000000001+COUNT($B$1:B46)*0.000000001)</f>
-        <v>3.8000000000000003E-8</v>
-      </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="240"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="240"/>
+        <v>63.000000038000003</v>
+      </c>
+      <c r="C47" s="90">
+        <v>38</v>
+      </c>
+      <c r="D47" s="240" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="240" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="240" t="s">
+        <v>247</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="91"/>
+        <v>314</v>
+      </c>
+      <c r="H47" s="29">
+        <v>7</v>
+      </c>
+      <c r="I47" s="21">
+        <v>3</v>
+      </c>
+      <c r="J47" s="91">
+        <v>3</v>
+      </c>
       <c r="K47" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L47" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H47,I47,J47),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="21"/>
@@ -17326,32 +18549,46 @@
       <c r="X47" s="214"/>
       <c r="Y47" s="213"/>
     </row>
-    <row r="48" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A48" s="3" t="str">
+    <row r="48" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A48" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="B48" s="3">
         <f>SUM(K48,0.000000001+COUNT($B$1:B47)*0.000000001)</f>
-        <v>3.9000000000000005E-8</v>
-      </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="240"/>
-      <c r="E48" s="240"/>
-      <c r="F48" s="240"/>
+        <v>105.000000039</v>
+      </c>
+      <c r="C48" s="90">
+        <v>39</v>
+      </c>
+      <c r="D48" s="240" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="240" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="240" t="s">
+        <v>246</v>
+      </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="91"/>
+        <v>315</v>
+      </c>
+      <c r="H48" s="29">
+        <v>7</v>
+      </c>
+      <c r="I48" s="21">
+        <v>5</v>
+      </c>
+      <c r="J48" s="91">
+        <v>3</v>
+      </c>
       <c r="K48" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L48" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H48,I48,J48),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="21"/>
@@ -17373,32 +18610,46 @@
       <c r="X48" s="214"/>
       <c r="Y48" s="213"/>
     </row>
-    <row r="49" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A49" s="3" t="str">
+    <row r="49" spans="1:25" s="1" customFormat="1" ht="42.75">
+      <c r="A49" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="B49" s="3">
         <f>SUM(K49,0.000000001+COUNT($B$1:B48)*0.000000001)</f>
-        <v>4.0000000000000007E-8</v>
-      </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="240"/>
-      <c r="E49" s="240"/>
-      <c r="F49" s="240"/>
+        <v>63.000000040000003</v>
+      </c>
+      <c r="C49" s="90">
+        <v>40</v>
+      </c>
+      <c r="D49" s="240" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="240" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="240" t="s">
+        <v>250</v>
+      </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="91"/>
+        <v>316</v>
+      </c>
+      <c r="H49" s="29">
+        <v>7</v>
+      </c>
+      <c r="I49" s="21">
+        <v>3</v>
+      </c>
+      <c r="J49" s="91">
+        <v>3</v>
+      </c>
       <c r="K49" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L49" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H49,I49,J49),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="21"/>
@@ -17420,32 +18671,46 @@
       <c r="X49" s="214"/>
       <c r="Y49" s="213"/>
     </row>
-    <row r="50" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A50" s="3" t="str">
+    <row r="50" spans="1:25" s="1" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A50" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="B50" s="3">
         <f>SUM(K50,0.000000001+COUNT($B$1:B49)*0.000000001)</f>
-        <v>4.1000000000000003E-8</v>
-      </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="240"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="240"/>
+        <v>45.000000041</v>
+      </c>
+      <c r="C50" s="90">
+        <v>41</v>
+      </c>
+      <c r="D50" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="240" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="240" t="s">
+        <v>267</v>
+      </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="91"/>
+        <v>314</v>
+      </c>
+      <c r="H50" s="29">
+        <v>5</v>
+      </c>
+      <c r="I50" s="21">
+        <v>3</v>
+      </c>
+      <c r="J50" s="91">
+        <v>3</v>
+      </c>
       <c r="K50" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L50" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H50,I50,J50),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="21"/>
@@ -17467,32 +18732,46 @@
       <c r="X50" s="214"/>
       <c r="Y50" s="213"/>
     </row>
-    <row r="51" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A51" s="3" t="str">
+    <row r="51" spans="1:25" s="1" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A51" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>38</v>
       </c>
       <c r="B51" s="3">
         <f>SUM(K51,0.000000001+COUNT($B$1:B50)*0.000000001)</f>
-        <v>4.2000000000000006E-8</v>
-      </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="240"/>
-      <c r="E51" s="240"/>
-      <c r="F51" s="240"/>
+        <v>25.000000042</v>
+      </c>
+      <c r="C51" s="90">
+        <v>42</v>
+      </c>
+      <c r="D51" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="240" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="240" t="s">
+        <v>268</v>
+      </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="91"/>
+        <v>317</v>
+      </c>
+      <c r="H51" s="29">
+        <v>5</v>
+      </c>
+      <c r="I51" s="21">
+        <v>1</v>
+      </c>
+      <c r="J51" s="91">
+        <v>5</v>
+      </c>
       <c r="K51" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L51" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H51,I51,J51),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="21"/>
@@ -17514,31 +18793,46 @@
       <c r="X51" s="214"/>
       <c r="Y51" s="213"/>
     </row>
-    <row r="52" spans="1:25" ht="33" customHeight="1">
-      <c r="A52" s="3" t="str">
+    <row r="52" spans="1:25" ht="72" customHeight="1">
+      <c r="A52" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="B52" s="3">
         <f>SUM(K52,0.000000001+COUNT($B$1:B51)*0.000000001)</f>
-        <v>4.3000000000000008E-8</v>
-      </c>
-      <c r="D52" s="240"/>
-      <c r="E52" s="240"/>
-      <c r="F52" s="240"/>
+        <v>45.000000043</v>
+      </c>
+      <c r="C52" s="90">
+        <v>43</v>
+      </c>
+      <c r="D52" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="240" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="240" t="s">
+        <v>253</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="91"/>
+        <v>318</v>
+      </c>
+      <c r="H52" s="29">
+        <v>5</v>
+      </c>
+      <c r="I52" s="21">
+        <v>3</v>
+      </c>
+      <c r="J52" s="91">
+        <v>3</v>
+      </c>
       <c r="K52" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L52" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H52,I52,J52),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="21"/>
@@ -17560,31 +18854,46 @@
       <c r="X52" s="214"/>
       <c r="Y52" s="213"/>
     </row>
-    <row r="53" spans="1:25" ht="33" customHeight="1">
-      <c r="A53" s="3" t="str">
+    <row r="53" spans="1:25" ht="71.25" customHeight="1">
+      <c r="A53" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="B53" s="3">
         <f>SUM(K53,0.000000001+COUNT($B$1:B52)*0.000000001)</f>
-        <v>4.4000000000000004E-8</v>
-      </c>
-      <c r="D53" s="240"/>
-      <c r="E53" s="240"/>
-      <c r="F53" s="240"/>
+        <v>75.000000044000004</v>
+      </c>
+      <c r="C53" s="90">
+        <v>44</v>
+      </c>
+      <c r="D53" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="240" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="240" t="s">
+        <v>254</v>
+      </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="91"/>
+        <v>319</v>
+      </c>
+      <c r="H53" s="29">
+        <v>5</v>
+      </c>
+      <c r="I53" s="21">
+        <v>3</v>
+      </c>
+      <c r="J53" s="91">
+        <v>5</v>
+      </c>
       <c r="K53" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L53" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H53,I53,J53),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="21"/>
@@ -17606,31 +18915,46 @@
       <c r="X53" s="214"/>
       <c r="Y53" s="213"/>
     </row>
-    <row r="54" spans="1:25" ht="33" customHeight="1">
-      <c r="A54" s="3" t="str">
+    <row r="54" spans="1:25" ht="42.75">
+      <c r="A54" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>48</v>
       </c>
       <c r="B54" s="3">
         <f>SUM(K54,0.000000001+COUNT($B$1:B53)*0.000000001)</f>
-        <v>4.5000000000000006E-8</v>
-      </c>
-      <c r="D54" s="240"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="240"/>
+        <v>7.0000000450000002</v>
+      </c>
+      <c r="C54" s="90">
+        <v>45</v>
+      </c>
+      <c r="D54" s="240" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="240" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="240" t="s">
+        <v>259</v>
+      </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="91"/>
+        <v>320</v>
+      </c>
+      <c r="H54" s="29">
+        <v>7</v>
+      </c>
+      <c r="I54" s="21">
+        <v>1</v>
+      </c>
+      <c r="J54" s="91">
+        <v>1</v>
+      </c>
       <c r="K54" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L54" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H54,I54,J54),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="21"/>
@@ -17652,77 +18976,117 @@
       <c r="X54" s="214"/>
       <c r="Y54" s="213"/>
     </row>
-    <row r="55" spans="1:25" ht="33" customHeight="1">
-      <c r="A55" s="3" t="str">
+    <row r="55" spans="1:25" ht="43.5" customHeight="1">
+      <c r="A55" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B55" s="3">
         <f>SUM(K55,0.000000001+COUNT($B$1:B54)*0.000000001)</f>
-        <v>4.6000000000000008E-8</v>
-      </c>
-      <c r="D55" s="240"/>
-      <c r="E55" s="240"/>
-      <c r="F55" s="240"/>
+        <v>175.000000046</v>
+      </c>
+      <c r="C55" s="90">
+        <v>46</v>
+      </c>
+      <c r="D55" s="240" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="240" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="240" t="s">
+        <v>260</v>
+      </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="91"/>
+        <v>281</v>
+      </c>
+      <c r="H55" s="29">
+        <v>7</v>
+      </c>
+      <c r="I55" s="21">
+        <v>5</v>
+      </c>
+      <c r="J55" s="91">
+        <v>5</v>
+      </c>
       <c r="K55" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="L55" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H55,I55,J55),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="N55" s="21">
+        <v>7</v>
+      </c>
+      <c r="O55" s="21">
+        <v>3</v>
+      </c>
+      <c r="P55" s="29">
+        <v>3</v>
+      </c>
       <c r="Q55" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="R55" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N55,O55,P55),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S55" s="212"/>
       <c r="T55" s="212"/>
       <c r="U55" s="212"/>
-      <c r="V55" s="207"/>
+      <c r="V55" s="207" t="s">
+        <v>175</v>
+      </c>
       <c r="W55" s="214"/>
       <c r="X55" s="214"/>
       <c r="Y55" s="213"/>
     </row>
     <row r="56" spans="1:25" ht="33" customHeight="1">
-      <c r="A56" s="3" t="str">
+      <c r="A56" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B56" s="3">
         <f>SUM(K56,0.000000001+COUNT($B$1:B55)*0.000000001)</f>
-        <v>4.7000000000000004E-8</v>
-      </c>
-      <c r="D56" s="240"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
+        <v>147.00000004699999</v>
+      </c>
+      <c r="C56" s="90">
+        <v>47</v>
+      </c>
+      <c r="D56" s="240" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="240" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="240" t="s">
+        <v>262</v>
+      </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="91"/>
+        <v>325</v>
+      </c>
+      <c r="H56" s="29">
+        <v>7</v>
+      </c>
+      <c r="I56" s="21">
+        <v>7</v>
+      </c>
+      <c r="J56" s="91">
+        <v>3</v>
+      </c>
       <c r="K56" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L56" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H56,I56,J56),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="21"/>
@@ -17745,30 +19109,45 @@
       <c r="Y56" s="213"/>
     </row>
     <row r="57" spans="1:25" ht="33" customHeight="1">
-      <c r="A57" s="3" t="str">
+      <c r="A57" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B57" s="3">
         <f>SUM(K57,0.000000001+COUNT($B$1:B56)*0.000000001)</f>
-        <v>4.8000000000000006E-8</v>
-      </c>
-      <c r="D57" s="240"/>
-      <c r="E57" s="240"/>
-      <c r="F57" s="240"/>
+        <v>147.000000048</v>
+      </c>
+      <c r="C57" s="90">
+        <v>48</v>
+      </c>
+      <c r="D57" s="240" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="240" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="240" t="s">
+        <v>261</v>
+      </c>
       <c r="G57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="91"/>
+      <c r="H57" s="29">
+        <v>7</v>
+      </c>
+      <c r="I57" s="21">
+        <v>7</v>
+      </c>
+      <c r="J57" s="91">
+        <v>3</v>
+      </c>
       <c r="K57" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L57" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H57,I57,J57),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="21"/>
@@ -17790,31 +19169,46 @@
       <c r="X57" s="214"/>
       <c r="Y57" s="213"/>
     </row>
-    <row r="58" spans="1:25" ht="33" customHeight="1">
-      <c r="A58" s="3" t="str">
+    <row r="58" spans="1:25" ht="57">
+      <c r="A58" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="B58" s="3">
         <f>SUM(K58,0.000000001+COUNT($B$1:B57)*0.000000001)</f>
-        <v>4.9000000000000009E-8</v>
-      </c>
-      <c r="D58" s="240"/>
-      <c r="E58" s="240"/>
-      <c r="F58" s="240"/>
+        <v>105.00000004899999</v>
+      </c>
+      <c r="C58" s="90">
+        <v>49</v>
+      </c>
+      <c r="D58" s="240" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" s="240" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="240" t="s">
+        <v>263</v>
+      </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="91"/>
+        <v>303</v>
+      </c>
+      <c r="H58" s="29">
+        <v>7</v>
+      </c>
+      <c r="I58" s="21">
+        <v>3</v>
+      </c>
+      <c r="J58" s="91">
+        <v>5</v>
+      </c>
       <c r="K58" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L58" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H58,I58,J58),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="21"/>
@@ -17837,122 +19231,187 @@
       <c r="Y58" s="213"/>
     </row>
     <row r="59" spans="1:25" ht="33" customHeight="1">
-      <c r="A59" s="3" t="str">
+      <c r="A59" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="B59" s="3">
         <f>SUM(K59,0.000000001+COUNT($B$1:B58)*0.000000001)</f>
-        <v>5.0000000000000004E-8</v>
-      </c>
-      <c r="D59" s="240"/>
-      <c r="E59" s="240"/>
-      <c r="F59" s="240"/>
+        <v>245.00000005000001</v>
+      </c>
+      <c r="C59" s="90">
+        <v>50</v>
+      </c>
+      <c r="D59" s="240" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" s="240" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="240" t="s">
+        <v>261</v>
+      </c>
       <c r="G59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="91"/>
+      <c r="H59" s="29">
+        <v>7</v>
+      </c>
+      <c r="I59" s="21">
+        <v>7</v>
+      </c>
+      <c r="J59" s="91">
+        <v>5</v>
+      </c>
       <c r="K59" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="L59" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H59,I59,J59),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N59" s="21">
+        <v>5</v>
+      </c>
+      <c r="O59" s="21">
+        <v>5</v>
+      </c>
+      <c r="P59" s="29">
+        <v>3</v>
+      </c>
       <c r="Q59" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R59" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N59,O59,P59),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="S59" s="212"/>
       <c r="T59" s="212"/>
       <c r="U59" s="212"/>
-      <c r="V59" s="207"/>
+      <c r="V59" s="207" t="s">
+        <v>175</v>
+      </c>
       <c r="W59" s="214"/>
       <c r="X59" s="214"/>
       <c r="Y59" s="213"/>
     </row>
-    <row r="60" spans="1:25" ht="33" customHeight="1">
-      <c r="A60" s="3" t="str">
+    <row r="60" spans="1:25" ht="42.75">
+      <c r="A60" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B60" s="3">
         <f>SUM(K60,0.000000001+COUNT($B$1:B59)*0.000000001)</f>
-        <v>5.1000000000000007E-8</v>
-      </c>
-      <c r="D60" s="240"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="240"/>
+        <v>245.000000051</v>
+      </c>
+      <c r="C60" s="90">
+        <v>51</v>
+      </c>
+      <c r="D60" s="240" t="s">
+        <v>322</v>
+      </c>
+      <c r="E60" s="240" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60" s="240" t="s">
+        <v>264</v>
+      </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="91"/>
+        <v>326</v>
+      </c>
+      <c r="H60" s="29">
+        <v>7</v>
+      </c>
+      <c r="I60" s="21">
+        <v>5</v>
+      </c>
+      <c r="J60" s="91">
+        <v>7</v>
+      </c>
       <c r="K60" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="L60" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H60,I60,J60),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="29"/>
+        <v>H</v>
+      </c>
+      <c r="M60" s="316" t="s">
+        <v>282</v>
+      </c>
+      <c r="N60" s="21">
+        <v>5</v>
+      </c>
+      <c r="O60" s="21">
+        <v>3</v>
+      </c>
+      <c r="P60" s="29">
+        <v>3</v>
+      </c>
       <c r="Q60" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="R60" s="21" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(N60,O60,P60),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S60" s="212"/>
       <c r="T60" s="212"/>
       <c r="U60" s="212"/>
-      <c r="V60" s="207"/>
+      <c r="V60" s="207" t="s">
+        <v>175</v>
+      </c>
       <c r="W60" s="214"/>
       <c r="X60" s="214"/>
       <c r="Y60" s="213"/>
     </row>
-    <row r="61" spans="1:25" ht="33" customHeight="1">
-      <c r="A61" s="3" t="str">
+    <row r="61" spans="1:25" ht="42.75">
+      <c r="A61" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B61" s="3">
         <f>SUM(K61,0.000000001+COUNT($B$1:B60)*0.000000001)</f>
-        <v>5.2000000000000002E-8</v>
-      </c>
-      <c r="D61" s="240"/>
-      <c r="E61" s="240"/>
-      <c r="F61" s="240"/>
+        <v>105.000000052</v>
+      </c>
+      <c r="C61" s="90">
+        <v>52</v>
+      </c>
+      <c r="D61" s="240" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61" s="240" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" s="240" t="s">
+        <v>265</v>
+      </c>
       <c r="G61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="91"/>
+        <v>274</v>
+      </c>
+      <c r="H61" s="29">
+        <v>7</v>
+      </c>
+      <c r="I61" s="21">
+        <v>3</v>
+      </c>
+      <c r="J61" s="91">
+        <v>5</v>
+      </c>
       <c r="K61" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L61" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H61,I61,J61),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>M</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="21"/>
@@ -17975,30 +19434,45 @@
       <c r="Y61" s="213"/>
     </row>
     <row r="62" spans="1:25" ht="33" customHeight="1">
-      <c r="A62" s="3" t="str">
+      <c r="A62" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>47</v>
       </c>
       <c r="B62" s="3">
         <f>SUM(K62,0.000000001+COUNT($B$1:B61)*0.000000001)</f>
-        <v>5.3000000000000005E-8</v>
-      </c>
-      <c r="D62" s="240"/>
-      <c r="E62" s="240"/>
-      <c r="F62" s="240"/>
+        <v>7.0000000529999999</v>
+      </c>
+      <c r="C62" s="90">
+        <v>53</v>
+      </c>
+      <c r="D62" s="317" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="240" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" s="240" t="s">
+        <v>321</v>
+      </c>
       <c r="G62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="91"/>
+        <v>327</v>
+      </c>
+      <c r="H62" s="29">
+        <v>7</v>
+      </c>
+      <c r="I62" s="21">
+        <v>1</v>
+      </c>
+      <c r="J62" s="91">
+        <v>1</v>
+      </c>
       <c r="K62" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L62" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H62,I62,J62),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="21"/>
@@ -18021,30 +19495,45 @@
       <c r="Y62" s="213"/>
     </row>
     <row r="63" spans="1:25" ht="33" customHeight="1">
-      <c r="A63" s="3" t="str">
+      <c r="A63" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>46</v>
       </c>
       <c r="B63" s="3">
         <f>SUM(K63,0.000000001+COUNT($B$1:B62)*0.000000001)</f>
-        <v>5.4000000000000007E-8</v>
-      </c>
-      <c r="D63" s="240"/>
-      <c r="E63" s="240"/>
-      <c r="F63" s="240"/>
+        <v>7.000000054</v>
+      </c>
+      <c r="C63" s="90">
+        <v>54</v>
+      </c>
+      <c r="D63" s="317" t="s">
+        <v>299</v>
+      </c>
+      <c r="E63" s="240" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="240" t="s">
+        <v>324</v>
+      </c>
       <c r="G63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="29"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="91"/>
+        <v>327</v>
+      </c>
+      <c r="H63" s="29">
+        <v>7</v>
+      </c>
+      <c r="I63" s="21">
+        <v>1</v>
+      </c>
+      <c r="J63" s="91">
+        <v>1</v>
+      </c>
       <c r="K63" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L63" s="23" t="str">
         <f>IFERROR(VLOOKUP(CONCATENATE(H63,I63,J63),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="21"/>
@@ -18075,7 +19564,8 @@
         <f>SUM(K64,0.000000001+COUNT($B$1:B63)*0.000000001)</f>
         <v>5.5000000000000003E-8</v>
       </c>
-      <c r="D64" s="240"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="317"/>
       <c r="E64" s="240"/>
       <c r="F64" s="240"/>
       <c r="G64" s="2" t="s">
@@ -18121,7 +19611,8 @@
         <f>SUM(K65,0.000000001+COUNT($B$1:B64)*0.000000001)</f>
         <v>5.6000000000000005E-8</v>
       </c>
-      <c r="D65" s="240"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="317"/>
       <c r="E65" s="240"/>
       <c r="F65" s="240"/>
       <c r="G65" s="2" t="s">
@@ -22627,6 +24118,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="D1:D3"/>
@@ -22643,13 +24141,6 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="X7:X8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:L162">
     <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="H">
@@ -22708,7 +24199,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -22721,7 +24212,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -22798,7 +24289,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>31</v>
@@ -22812,29 +24303,29 @@
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>1</v>
       </c>
-      <c r="B6" s="99" t="str">
+      <c r="B6" s="99">
         <f>IFERROR(IF(OR(C6=0,VLOOKUP(A6,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A6,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="100" t="str">
+        <v>8</v>
+      </c>
+      <c r="C6" s="100">
         <f>IF(IFERROR(VLOOKUP(A6,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A6,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D6" s="92" t="str">
+        <v>490</v>
+      </c>
+      <c r="D6" s="92">
         <f>C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="92" t="str">
+        <v>490</v>
+      </c>
+      <c r="E6" s="92">
         <f>IF(IFERROR(VLOOKUP(A6,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A6,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="93" t="str">
+        <v>30</v>
+      </c>
+      <c r="F6" s="93">
         <f>IFERROR(C6/SUM(C$6:C$1004),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="93" t="str">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G6" s="93">
         <f>IFERROR(D6/MAX(D$6:D$1004),"")</f>
-        <v/>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -22842,29 +24333,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="99" t="str">
+      <c r="B7" s="99">
         <f>IFERROR(IF(OR(C7=0,VLOOKUP(A7,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A7,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="100" t="str">
+        <v>7</v>
+      </c>
+      <c r="C7" s="100">
         <f>IF(IFERROR(VLOOKUP(A7,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A7,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D7" s="92" t="str">
+        <v>490</v>
+      </c>
+      <c r="D7" s="92">
         <f>IFERROR(D6+C7,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="92" t="str">
+        <v>980</v>
+      </c>
+      <c r="E7" s="92">
         <f>IF(IFERROR(VLOOKUP(A7,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A7,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F7" s="93" t="str">
+        <v>10</v>
+      </c>
+      <c r="F7" s="93">
         <f t="shared" ref="F7:F70" si="1">IFERROR(C7/SUM(C$6:C$1004),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="93" t="str">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G7" s="93">
         <f t="shared" ref="G7:G70" si="2">IFERROR(D7/MAX(D$6:D$1004),"")</f>
-        <v/>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -22872,29 +24363,29 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="99" t="str">
+      <c r="B8" s="99">
         <f>IFERROR(IF(OR(C8=0,VLOOKUP(A8,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A8,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="100" t="str">
+        <v>6</v>
+      </c>
+      <c r="C8" s="100">
         <f>IF(IFERROR(VLOOKUP(A8,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A8,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D8" s="92" t="str">
+        <v>490</v>
+      </c>
+      <c r="D8" s="92">
         <f t="shared" ref="D8:D71" si="3">IFERROR(D7+C8,"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="92" t="str">
+        <v>1470</v>
+      </c>
+      <c r="E8" s="92">
         <f>IF(IFERROR(VLOOKUP(A8,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A8,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F8" s="93" t="str">
+        <v>90</v>
+      </c>
+      <c r="F8" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G8" s="93" t="str">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G8" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -22902,29 +24393,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="99" t="str">
+      <c r="B9" s="99">
         <f>IFERROR(IF(OR(C9=0,VLOOKUP(A9,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A9,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="100" t="str">
+        <v>5</v>
+      </c>
+      <c r="C9" s="100">
         <f>IF(IFERROR(VLOOKUP(A9,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A9,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D9" s="92" t="str">
+        <v>490</v>
+      </c>
+      <c r="D9" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E9" s="92" t="str">
+        <v>1960</v>
+      </c>
+      <c r="E9" s="92">
         <f>IF(IFERROR(VLOOKUP(A9,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A9,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F9" s="93" t="str">
+        <v>90</v>
+      </c>
+      <c r="F9" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G9" s="93" t="str">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G9" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -22932,29 +24423,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="99" t="str">
+      <c r="B10" s="99">
         <f>IFERROR(IF(OR(C10=0,VLOOKUP(A10,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A10,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="100" t="str">
+        <v>34</v>
+      </c>
+      <c r="C10" s="100">
         <f>IF(IFERROR(VLOOKUP(A10,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A10,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D10" s="92" t="str">
+        <v>350</v>
+      </c>
+      <c r="D10" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E10" s="92" t="str">
+        <v>2310</v>
+      </c>
+      <c r="E10" s="92">
         <f>IF(IFERROR(VLOOKUP(A10,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A10,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F10" s="93" t="str">
+        <v>63</v>
+      </c>
+      <c r="F10" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="93" t="str">
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="G10" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -22962,29 +24453,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="99" t="str">
+      <c r="B11" s="99">
         <f>IFERROR(IF(OR(C11=0,VLOOKUP(A11,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A11,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="100" t="str">
+        <v>51</v>
+      </c>
+      <c r="C11" s="100">
         <f>IF(IFERROR(VLOOKUP(A11,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A11,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D11" s="92" t="str">
+        <v>245</v>
+      </c>
+      <c r="D11" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="92" t="str">
+        <v>2555</v>
+      </c>
+      <c r="E11" s="92">
         <f>IF(IFERROR(VLOOKUP(A11,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A11,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F11" s="93" t="str">
+        <v>45</v>
+      </c>
+      <c r="F11" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G11" s="93" t="str">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G11" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.47402597402597402</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -22992,29 +24483,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="99" t="str">
+      <c r="B12" s="99">
         <f>IFERROR(IF(OR(C12=0,VLOOKUP(A12,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A12,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="100" t="str">
+        <v>50</v>
+      </c>
+      <c r="C12" s="100">
         <f>IF(IFERROR(VLOOKUP(A12,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A12,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D12" s="92" t="str">
+        <v>245</v>
+      </c>
+      <c r="D12" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12" s="92" t="str">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="92">
         <f>IF(IFERROR(VLOOKUP(A12,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A12,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F12" s="93" t="str">
+        <v>75</v>
+      </c>
+      <c r="F12" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" s="93" t="str">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G12" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.51948051948051943</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1">
@@ -23022,29 +24513,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="99" t="str">
+      <c r="B13" s="99">
         <f>IFERROR(IF(OR(C13=0,VLOOKUP(A13,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A13,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="100" t="str">
+        <v>46</v>
+      </c>
+      <c r="C13" s="100">
         <f>IF(IFERROR(VLOOKUP(A13,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A13,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D13" s="92" t="str">
+        <v>175</v>
+      </c>
+      <c r="D13" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="92" t="str">
+        <v>2975</v>
+      </c>
+      <c r="E13" s="92">
         <f>IF(IFERROR(VLOOKUP(A13,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A13,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F13" s="93" t="str">
+        <v>63</v>
+      </c>
+      <c r="F13" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" s="93" t="str">
+        <v>3.2467532467532464E-2</v>
+      </c>
+      <c r="G13" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.55194805194805197</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -23052,29 +24543,29 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="99" t="str">
+      <c r="B14" s="99">
         <f>IFERROR(IF(OR(C14=0,VLOOKUP(A14,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A14,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="100" t="str">
+        <v>48</v>
+      </c>
+      <c r="C14" s="100">
         <f>IF(IFERROR(VLOOKUP(A14,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A14,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D14" s="92" t="str">
+        <v>147</v>
+      </c>
+      <c r="D14" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3122</v>
       </c>
       <c r="E14" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A14,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A14,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F14" s="93" t="str">
+      <c r="F14" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="93" t="str">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="G14" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.57922077922077919</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -23082,29 +24573,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="99" t="str">
+      <c r="B15" s="99">
         <f>IFERROR(IF(OR(C15=0,VLOOKUP(A15,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A15,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="100" t="str">
+        <v>47</v>
+      </c>
+      <c r="C15" s="100">
         <f>IF(IFERROR(VLOOKUP(A15,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A15,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D15" s="92" t="str">
+        <v>147</v>
+      </c>
+      <c r="D15" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3269</v>
       </c>
       <c r="E15" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A15,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A15,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F15" s="93" t="str">
+      <c r="F15" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="93" t="str">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="G15" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.60649350649350653</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -23112,29 +24603,29 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="99" t="str">
+      <c r="B16" s="99">
         <f>IFERROR(IF(OR(C16=0,VLOOKUP(A16,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A16,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="100" t="str">
+        <v>30</v>
+      </c>
+      <c r="C16" s="100">
         <f>IF(IFERROR(VLOOKUP(A16,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A16,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D16" s="92" t="str">
+        <v>147</v>
+      </c>
+      <c r="D16" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3416</v>
       </c>
       <c r="E16" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A16,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A16,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F16" s="93" t="str">
+      <c r="F16" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="93" t="str">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="G16" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.63376623376623376</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -23142,29 +24633,29 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="99" t="str">
+      <c r="B17" s="99">
         <f>IFERROR(IF(OR(C17=0,VLOOKUP(A17,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A17,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="100" t="str">
+        <v>29</v>
+      </c>
+      <c r="C17" s="100">
         <f>IF(IFERROR(VLOOKUP(A17,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A17,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D17" s="92" t="str">
+        <v>147</v>
+      </c>
+      <c r="D17" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3563</v>
       </c>
       <c r="E17" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A17,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A17,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F17" s="93" t="str">
+      <c r="F17" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" s="93" t="str">
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="G17" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.66103896103896109</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
@@ -23172,29 +24663,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="99" t="str">
+      <c r="B18" s="99">
         <f>IFERROR(IF(OR(C18=0,VLOOKUP(A18,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A18,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="100" t="str">
+        <v>52</v>
+      </c>
+      <c r="C18" s="100">
         <f>IF(IFERROR(VLOOKUP(A18,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A18,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D18" s="92" t="str">
+        <v>105</v>
+      </c>
+      <c r="D18" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3668</v>
       </c>
       <c r="E18" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A18,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A18,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F18" s="93" t="str">
+      <c r="F18" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="93" t="str">
+        <v>1.948051948051948E-2</v>
+      </c>
+      <c r="G18" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.68051948051948052</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -23202,29 +24693,29 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="99" t="str">
+      <c r="B19" s="99">
         <f>IFERROR(IF(OR(C19=0,VLOOKUP(A19,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A19,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="100" t="str">
+        <v>49</v>
+      </c>
+      <c r="C19" s="100">
         <f>IF(IFERROR(VLOOKUP(A19,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A19,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D19" s="92" t="str">
+        <v>105</v>
+      </c>
+      <c r="D19" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3773</v>
       </c>
       <c r="E19" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A19,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A19,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F19" s="93" t="str">
+      <c r="F19" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="93" t="str">
+        <v>1.948051948051948E-2</v>
+      </c>
+      <c r="G19" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -23232,29 +24723,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="99" t="str">
+      <c r="B20" s="99">
         <f>IFERROR(IF(OR(C20=0,VLOOKUP(A20,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A20,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="100" t="str">
+        <v>39</v>
+      </c>
+      <c r="C20" s="100">
         <f>IF(IFERROR(VLOOKUP(A20,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A20,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D20" s="92" t="str">
+        <v>105</v>
+      </c>
+      <c r="D20" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3878</v>
       </c>
       <c r="E20" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A20,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A20,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F20" s="93" t="str">
+      <c r="F20" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="93" t="str">
+        <v>1.948051948051948E-2</v>
+      </c>
+      <c r="G20" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.7194805194805195</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -23262,29 +24753,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="99" t="str">
+      <c r="B21" s="99">
         <f>IFERROR(IF(OR(C21=0,VLOOKUP(A21,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A21,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="100" t="str">
+        <v>37</v>
+      </c>
+      <c r="C21" s="100">
         <f>IF(IFERROR(VLOOKUP(A21,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A21,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D21" s="92" t="str">
+        <v>105</v>
+      </c>
+      <c r="D21" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3983</v>
       </c>
       <c r="E21" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A21,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A21,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F21" s="93" t="str">
+      <c r="F21" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="93" t="str">
+        <v>1.948051948051948E-2</v>
+      </c>
+      <c r="G21" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.73896103896103893</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -23292,29 +24783,29 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="99" t="str">
+      <c r="B22" s="99">
         <f>IFERROR(IF(OR(C22=0,VLOOKUP(A22,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A22,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="100" t="str">
+        <v>28</v>
+      </c>
+      <c r="C22" s="100">
         <f>IF(IFERROR(VLOOKUP(A22,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A22,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D22" s="92" t="str">
+        <v>90</v>
+      </c>
+      <c r="D22" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E22" s="92" t="str">
+        <v>4073</v>
+      </c>
+      <c r="E22" s="92">
         <f>IF(IFERROR(VLOOKUP(A22,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A22,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F22" s="93" t="str">
+        <v>45</v>
+      </c>
+      <c r="F22" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="93" t="str">
+        <v>1.6697588126159554E-2</v>
+      </c>
+      <c r="G22" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.75565862708719855</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -23322,29 +24813,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="99" t="str">
+      <c r="B23" s="99">
         <f>IFERROR(IF(OR(C23=0,VLOOKUP(A23,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A23,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C23" s="100" t="str">
+        <v>44</v>
+      </c>
+      <c r="C23" s="100">
         <f>IF(IFERROR(VLOOKUP(A23,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A23,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D23" s="92" t="str">
+        <v>75</v>
+      </c>
+      <c r="D23" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4148</v>
       </c>
       <c r="E23" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A23,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A23,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F23" s="93" t="str">
+      <c r="F23" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="93" t="str">
+        <v>1.3914656771799629E-2</v>
+      </c>
+      <c r="G23" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.76957328385899815</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -23352,29 +24843,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="99" t="str">
+      <c r="B24" s="99">
         <f>IFERROR(IF(OR(C24=0,VLOOKUP(A24,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A24,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C24" s="100" t="str">
+        <v>23</v>
+      </c>
+      <c r="C24" s="100">
         <f>IF(IFERROR(VLOOKUP(A24,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A24,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D24" s="92" t="str">
+        <v>75</v>
+      </c>
+      <c r="D24" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4223</v>
       </c>
       <c r="E24" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A24,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A24,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F24" s="93" t="str">
+      <c r="F24" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="93" t="str">
+        <v>1.3914656771799629E-2</v>
+      </c>
+      <c r="G24" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.78348794063079774</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -23382,29 +24873,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="99" t="str">
+      <c r="B25" s="99">
         <f>IFERROR(IF(OR(C25=0,VLOOKUP(A25,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A25,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C25" s="100" t="str">
+        <v>16</v>
+      </c>
+      <c r="C25" s="100">
         <f>IF(IFERROR(VLOOKUP(A25,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A25,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D25" s="92" t="str">
+        <v>75</v>
+      </c>
+      <c r="D25" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4298</v>
       </c>
       <c r="E25" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A25,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A25,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F25" s="93" t="str">
+      <c r="F25" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="93" t="str">
+        <v>1.3914656771799629E-2</v>
+      </c>
+      <c r="G25" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.79740259740259745</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -23412,29 +24903,29 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="99" t="str">
+      <c r="B26" s="99">
         <f>IFERROR(IF(OR(C26=0,VLOOKUP(A26,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A26,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="100" t="str">
+        <v>14</v>
+      </c>
+      <c r="C26" s="100">
         <f>IF(IFERROR(VLOOKUP(A26,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A26,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D26" s="92" t="str">
+        <v>75</v>
+      </c>
+      <c r="D26" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4373</v>
       </c>
       <c r="E26" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A26,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A26,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F26" s="93" t="str">
+      <c r="F26" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="93" t="str">
+        <v>1.3914656771799629E-2</v>
+      </c>
+      <c r="G26" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.81131725417439704</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -23442,29 +24933,29 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="99" t="str">
+      <c r="B27" s="99">
         <f>IFERROR(IF(OR(C27=0,VLOOKUP(A27,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A27,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C27" s="100" t="str">
+        <v>13</v>
+      </c>
+      <c r="C27" s="100">
         <f>IF(IFERROR(VLOOKUP(A27,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A27,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D27" s="92" t="str">
+        <v>75</v>
+      </c>
+      <c r="D27" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4448</v>
       </c>
       <c r="E27" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A27,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A27,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F27" s="93" t="str">
+      <c r="F27" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="93" t="str">
+        <v>1.3914656771799629E-2</v>
+      </c>
+      <c r="G27" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.82523191094619663</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -23472,29 +24963,29 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="99" t="str">
+      <c r="B28" s="99">
         <f>IFERROR(IF(OR(C28=0,VLOOKUP(A28,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A28,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="100" t="str">
+        <v>40</v>
+      </c>
+      <c r="C28" s="100">
         <f>IF(IFERROR(VLOOKUP(A28,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A28,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D28" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D28" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4511</v>
       </c>
       <c r="E28" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A28,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A28,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F28" s="93" t="str">
+      <c r="F28" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G28" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.83692022263450838</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -23502,29 +24993,29 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="99" t="str">
+      <c r="B29" s="99">
         <f>IFERROR(IF(OR(C29=0,VLOOKUP(A29,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A29,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="100" t="str">
+        <v>38</v>
+      </c>
+      <c r="C29" s="100">
         <f>IF(IFERROR(VLOOKUP(A29,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A29,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D29" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D29" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4574</v>
       </c>
       <c r="E29" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A29,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A29,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F29" s="93" t="str">
+      <c r="F29" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G29" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.84860853432282002</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -23532,29 +25023,29 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="99" t="str">
+      <c r="B30" s="99">
         <f>IFERROR(IF(OR(C30=0,VLOOKUP(A30,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A30,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="100" t="str">
+        <v>32</v>
+      </c>
+      <c r="C30" s="100">
         <f>IF(IFERROR(VLOOKUP(A30,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A30,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D30" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D30" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4637</v>
       </c>
       <c r="E30" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A30,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A30,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F30" s="93" t="str">
+      <c r="F30" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G30" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.86029684601113177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -23562,29 +25053,29 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="99" t="str">
+      <c r="B31" s="99">
         <f>IFERROR(IF(OR(C31=0,VLOOKUP(A31,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A31,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="100" t="str">
+        <v>31</v>
+      </c>
+      <c r="C31" s="100">
         <f>IF(IFERROR(VLOOKUP(A31,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A31,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D31" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D31" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4700</v>
       </c>
       <c r="E31" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A31,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A31,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F31" s="93" t="str">
+      <c r="F31" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G31" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.8719851576994434</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -23592,29 +25083,29 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="99" t="str">
+      <c r="B32" s="99">
         <f>IFERROR(IF(OR(C32=0,VLOOKUP(A32,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A32,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="100" t="str">
+        <v>27</v>
+      </c>
+      <c r="C32" s="100">
         <f>IF(IFERROR(VLOOKUP(A32,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A32,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D32" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D32" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4763</v>
       </c>
       <c r="E32" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A32,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A32,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F32" s="93" t="str">
+      <c r="F32" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G32" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.88367346938775515</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -23622,29 +25113,29 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="99" t="str">
+      <c r="B33" s="99">
         <f>IFERROR(IF(OR(C33=0,VLOOKUP(A33,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A33,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="100" t="str">
+        <v>2</v>
+      </c>
+      <c r="C33" s="100">
         <f>IF(IFERROR(VLOOKUP(A33,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A33,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D33" s="92" t="str">
+        <v>63</v>
+      </c>
+      <c r="D33" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4826</v>
       </c>
       <c r="E33" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A33,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A33,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F33" s="93" t="str">
+      <c r="F33" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="93" t="str">
+        <v>1.1688311688311689E-2</v>
+      </c>
+      <c r="G33" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.89536178107606679</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -23652,29 +25143,29 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="99" t="str">
+      <c r="B34" s="99">
         <f>IFERROR(IF(OR(C34=0,VLOOKUP(A34,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A34,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="100" t="str">
+        <v>33</v>
+      </c>
+      <c r="C34" s="100">
         <f>IF(IFERROR(VLOOKUP(A34,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A34,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D34" s="92" t="str">
+        <v>50</v>
+      </c>
+      <c r="D34" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4876</v>
       </c>
       <c r="E34" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A34,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A34,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F34" s="93" t="str">
+      <c r="F34" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="93" t="str">
+        <v>9.2764378478664197E-3</v>
+      </c>
+      <c r="G34" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.90463821892393326</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -23682,29 +25173,29 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B35" s="99" t="str">
+      <c r="B35" s="99">
         <f>IFERROR(IF(OR(C35=0,VLOOKUP(A35,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A35,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C35" s="100" t="str">
+        <v>43</v>
+      </c>
+      <c r="C35" s="100">
         <f>IF(IFERROR(VLOOKUP(A35,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A35,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D35" s="92" t="str">
+        <v>45</v>
+      </c>
+      <c r="D35" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4921</v>
       </c>
       <c r="E35" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A35,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A35,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F35" s="93" t="str">
+      <c r="F35" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="93" t="str">
+        <v>8.3487940630797772E-3</v>
+      </c>
+      <c r="G35" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.91298701298701301</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -23712,29 +25203,29 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B36" s="99" t="str">
+      <c r="B36" s="99">
         <f>IFERROR(IF(OR(C36=0,VLOOKUP(A36,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A36,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="100" t="str">
+        <v>41</v>
+      </c>
+      <c r="C36" s="100">
         <f>IF(IFERROR(VLOOKUP(A36,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A36,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D36" s="92" t="str">
+        <v>45</v>
+      </c>
+      <c r="D36" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4966</v>
       </c>
       <c r="E36" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A36,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A36,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F36" s="93" t="str">
+      <c r="F36" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="93" t="str">
+        <v>8.3487940630797772E-3</v>
+      </c>
+      <c r="G36" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.92133580705009277</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -23742,29 +25233,29 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B37" s="99" t="str">
+      <c r="B37" s="99">
         <f>IFERROR(IF(OR(C37=0,VLOOKUP(A37,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A37,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C37" s="100" t="str">
+        <v>20</v>
+      </c>
+      <c r="C37" s="100">
         <f>IF(IFERROR(VLOOKUP(A37,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A37,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D37" s="92" t="str">
+        <v>45</v>
+      </c>
+      <c r="D37" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5011</v>
       </c>
       <c r="E37" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A37,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A37,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F37" s="93" t="str">
+      <c r="F37" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="93" t="str">
+        <v>8.3487940630797772E-3</v>
+      </c>
+      <c r="G37" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.92968460111317253</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -23772,29 +25263,29 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B38" s="99" t="str">
+      <c r="B38" s="99">
         <f>IFERROR(IF(OR(C38=0,VLOOKUP(A38,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A38,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C38" s="100" t="str">
+        <v>19</v>
+      </c>
+      <c r="C38" s="100">
         <f>IF(IFERROR(VLOOKUP(A38,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A38,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D38" s="92" t="str">
+        <v>45</v>
+      </c>
+      <c r="D38" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5056</v>
       </c>
       <c r="E38" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A38,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A38,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F38" s="93" t="str">
+      <c r="F38" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="93" t="str">
+        <v>8.3487940630797772E-3</v>
+      </c>
+      <c r="G38" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.93803339517625228</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -23802,29 +25293,29 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="99" t="str">
+      <c r="B39" s="99">
         <f>IFERROR(IF(OR(C39=0,VLOOKUP(A39,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A39,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="100" t="str">
+        <v>17</v>
+      </c>
+      <c r="C39" s="100">
         <f>IF(IFERROR(VLOOKUP(A39,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A39,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D39" s="92" t="str">
+        <v>45</v>
+      </c>
+      <c r="D39" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5101</v>
       </c>
       <c r="E39" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A39,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A39,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F39" s="93" t="str">
+      <c r="F39" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="93" t="str">
+        <v>8.3487940630797772E-3</v>
+      </c>
+      <c r="G39" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.94638218923933215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -23832,29 +25323,29 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B40" s="99" t="str">
+      <c r="B40" s="99">
         <f>IFERROR(IF(OR(C40=0,VLOOKUP(A40,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A40,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C40" s="100" t="str">
+        <v>36</v>
+      </c>
+      <c r="C40" s="100">
         <f>IF(IFERROR(VLOOKUP(A40,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A40,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D40" s="92" t="str">
+        <v>30</v>
+      </c>
+      <c r="D40" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5131</v>
       </c>
       <c r="E40" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A40,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A40,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F40" s="93" t="str">
+      <c r="F40" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="93" t="str">
+        <v>5.5658627087198514E-3</v>
+      </c>
+      <c r="G40" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.95194805194805199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -23862,29 +25353,29 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B41" s="99" t="str">
+      <c r="B41" s="99">
         <f>IFERROR(IF(OR(C41=0,VLOOKUP(A41,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A41,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C41" s="100" t="str">
+        <v>35</v>
+      </c>
+      <c r="C41" s="100">
         <f>IF(IFERROR(VLOOKUP(A41,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A41,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D41" s="92" t="str">
+        <v>30</v>
+      </c>
+      <c r="D41" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5161</v>
       </c>
       <c r="E41" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A41,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A41,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F41" s="93" t="str">
+      <c r="F41" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="93" t="str">
+        <v>5.5658627087198514E-3</v>
+      </c>
+      <c r="G41" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.95751391465677183</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -23892,29 +25383,29 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B42" s="99" t="str">
+      <c r="B42" s="99">
         <f>IFERROR(IF(OR(C42=0,VLOOKUP(A42,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A42,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C42" s="100" t="str">
+        <v>25</v>
+      </c>
+      <c r="C42" s="100">
         <f>IF(IFERROR(VLOOKUP(A42,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A42,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D42" s="92" t="str">
+        <v>30</v>
+      </c>
+      <c r="D42" s="92">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E42" s="92" t="str">
+        <v>5191</v>
+      </c>
+      <c r="E42" s="92">
         <f>IF(IFERROR(VLOOKUP(A42,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A42,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F42" s="93" t="str">
+        <v>21</v>
+      </c>
+      <c r="F42" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="93" t="str">
+        <v>5.5658627087198514E-3</v>
+      </c>
+      <c r="G42" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.96307977736549166</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -23922,29 +25413,29 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B43" s="99" t="str">
+      <c r="B43" s="99">
         <f>IFERROR(IF(OR(C43=0,VLOOKUP(A43,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A43,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C43" s="100" t="str">
+        <v>42</v>
+      </c>
+      <c r="C43" s="100">
         <f>IF(IFERROR(VLOOKUP(A43,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A43,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D43" s="92" t="str">
+        <v>25</v>
+      </c>
+      <c r="D43" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5216</v>
       </c>
       <c r="E43" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A43,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A43,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F43" s="93" t="str">
+      <c r="F43" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" s="93" t="str">
+        <v>4.6382189239332098E-3</v>
+      </c>
+      <c r="G43" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.9677179962894249</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -23952,29 +25443,29 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B44" s="99" t="str">
+      <c r="B44" s="99">
         <f>IFERROR(IF(OR(C44=0,VLOOKUP(A44,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A44,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C44" s="100" t="str">
+        <v>15</v>
+      </c>
+      <c r="C44" s="100">
         <f>IF(IFERROR(VLOOKUP(A44,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A44,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D44" s="92" t="str">
+        <v>25</v>
+      </c>
+      <c r="D44" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5241</v>
       </c>
       <c r="E44" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A44,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A44,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F44" s="93" t="str">
+      <c r="F44" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="93" t="str">
+        <v>4.6382189239332098E-3</v>
+      </c>
+      <c r="G44" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.97235621521335802</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -23982,29 +25473,29 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B45" s="99" t="str">
+      <c r="B45" s="99">
         <f>IFERROR(IF(OR(C45=0,VLOOKUP(A45,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A45,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C45" s="100" t="str">
+        <v>26</v>
+      </c>
+      <c r="C45" s="100">
         <f>IF(IFERROR(VLOOKUP(A45,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A45,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D45" s="92" t="str">
+        <v>21</v>
+      </c>
+      <c r="D45" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5262</v>
       </c>
       <c r="E45" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A45,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A45,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F45" s="93" t="str">
+      <c r="F45" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="93" t="str">
+        <v>3.8961038961038961E-3</v>
+      </c>
+      <c r="G45" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.97625231910946197</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -24012,29 +25503,29 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B46" s="99" t="str">
+      <c r="B46" s="99">
         <f>IFERROR(IF(OR(C46=0,VLOOKUP(A46,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A46,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C46" s="100" t="str">
+        <v>9</v>
+      </c>
+      <c r="C46" s="100">
         <f>IF(IFERROR(VLOOKUP(A46,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A46,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D46" s="92" t="str">
+        <v>21</v>
+      </c>
+      <c r="D46" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5283</v>
       </c>
       <c r="E46" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A46,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A46,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F46" s="93" t="str">
+      <c r="F46" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="93" t="str">
+        <v>3.8961038961038961E-3</v>
+      </c>
+      <c r="G46" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.98014842300556582</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -24042,29 +25533,29 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B47" s="99" t="str">
+      <c r="B47" s="99">
         <f>IFERROR(IF(OR(C47=0,VLOOKUP(A47,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A47,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C47" s="100" t="str">
+        <v>1</v>
+      </c>
+      <c r="C47" s="100">
         <f>IF(IFERROR(VLOOKUP(A47,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A47,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D47" s="92" t="str">
+        <v>21</v>
+      </c>
+      <c r="D47" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5304</v>
       </c>
       <c r="E47" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A47,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A47,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F47" s="93" t="str">
+      <c r="F47" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="93" t="str">
+        <v>3.8961038961038961E-3</v>
+      </c>
+      <c r="G47" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.98404452690166977</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -24072,29 +25563,29 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B48" s="99" t="str">
+      <c r="B48" s="99">
         <f>IFERROR(IF(OR(C48=0,VLOOKUP(A48,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A48,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C48" s="100" t="str">
+        <v>22</v>
+      </c>
+      <c r="C48" s="100">
         <f>IF(IFERROR(VLOOKUP(A48,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A48,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D48" s="92" t="str">
+        <v>15</v>
+      </c>
+      <c r="D48" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5319</v>
       </c>
       <c r="E48" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A48,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A48,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F48" s="93" t="str">
+      <c r="F48" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="93" t="str">
+        <v>2.7829313543599257E-3</v>
+      </c>
+      <c r="G48" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.98682745825602969</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -24102,29 +25593,29 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B49" s="99" t="str">
+      <c r="B49" s="99">
         <f>IFERROR(IF(OR(C49=0,VLOOKUP(A49,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A49,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C49" s="100" t="str">
+        <v>12</v>
+      </c>
+      <c r="C49" s="100">
         <f>IF(IFERROR(VLOOKUP(A49,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A49,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D49" s="92" t="str">
+        <v>9</v>
+      </c>
+      <c r="D49" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5328</v>
       </c>
       <c r="E49" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A49,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A49,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F49" s="93" t="str">
+      <c r="F49" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="93" t="str">
+        <v>1.6697588126159556E-3</v>
+      </c>
+      <c r="G49" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.98849721706864568</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -24132,29 +25623,29 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B50" s="99" t="str">
+      <c r="B50" s="99">
         <f>IFERROR(IF(OR(C50=0,VLOOKUP(A50,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A50,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C50" s="100" t="str">
+        <v>11</v>
+      </c>
+      <c r="C50" s="100">
         <f>IF(IFERROR(VLOOKUP(A50,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A50,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D50" s="92" t="str">
+        <v>9</v>
+      </c>
+      <c r="D50" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5337</v>
       </c>
       <c r="E50" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A50,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A50,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F50" s="93" t="str">
+      <c r="F50" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="93" t="str">
+        <v>1.6697588126159556E-3</v>
+      </c>
+      <c r="G50" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99016697588126157</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -24162,29 +25653,29 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B51" s="99" t="str">
+      <c r="B51" s="99">
         <f>IFERROR(IF(OR(C51=0,VLOOKUP(A51,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A51,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C51" s="100" t="str">
+        <v>54</v>
+      </c>
+      <c r="C51" s="100">
         <f>IF(IFERROR(VLOOKUP(A51,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A51,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D51" s="92" t="str">
+        <v>7</v>
+      </c>
+      <c r="D51" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5344</v>
       </c>
       <c r="E51" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A51,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A51,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F51" s="93" t="str">
+      <c r="F51" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="93" t="str">
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="G51" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99146567717996292</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -24192,29 +25683,29 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B52" s="99" t="str">
+      <c r="B52" s="99">
         <f>IFERROR(IF(OR(C52=0,VLOOKUP(A52,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A52,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C52" s="100" t="str">
+        <v>53</v>
+      </c>
+      <c r="C52" s="100">
         <f>IF(IFERROR(VLOOKUP(A52,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A52,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D52" s="92" t="str">
+        <v>7</v>
+      </c>
+      <c r="D52" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5351</v>
       </c>
       <c r="E52" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A52,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A52,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F52" s="93" t="str">
+      <c r="F52" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="93" t="str">
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="G52" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99276437847866417</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -24222,29 +25713,29 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B53" s="99" t="str">
+      <c r="B53" s="99">
         <f>IFERROR(IF(OR(C53=0,VLOOKUP(A53,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A53,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C53" s="100" t="str">
+        <v>45</v>
+      </c>
+      <c r="C53" s="100">
         <f>IF(IFERROR(VLOOKUP(A53,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A53,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D53" s="92" t="str">
+        <v>7</v>
+      </c>
+      <c r="D53" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5358</v>
       </c>
       <c r="E53" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A53,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A53,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F53" s="93" t="str">
+      <c r="F53" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="93" t="str">
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="G53" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99406307977736552</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -24252,29 +25743,29 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B54" s="99" t="str">
+      <c r="B54" s="99">
         <f>IFERROR(IF(OR(C54=0,VLOOKUP(A54,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A54,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C54" s="100" t="str">
+        <v>4</v>
+      </c>
+      <c r="C54" s="100">
         <f>IF(IFERROR(VLOOKUP(A54,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A54,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D54" s="92" t="str">
+        <v>7</v>
+      </c>
+      <c r="D54" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5365</v>
       </c>
       <c r="E54" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A54,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A54,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F54" s="93" t="str">
+      <c r="F54" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="93" t="str">
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="G54" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99536178107606677</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -24282,29 +25773,29 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B55" s="99" t="str">
+      <c r="B55" s="99">
         <f>IFERROR(IF(OR(C55=0,VLOOKUP(A55,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A55,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C55" s="100" t="str">
+        <v>3</v>
+      </c>
+      <c r="C55" s="100">
         <f>IF(IFERROR(VLOOKUP(A55,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A55,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D55" s="92" t="str">
+        <v>7</v>
+      </c>
+      <c r="D55" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5372</v>
       </c>
       <c r="E55" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A55,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A55,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F55" s="93" t="str">
+      <c r="F55" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="93" t="str">
+        <v>1.2987012987012987E-3</v>
+      </c>
+      <c r="G55" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99666048237476812</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -24312,29 +25803,29 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B56" s="99" t="str">
+      <c r="B56" s="99">
         <f>IFERROR(IF(OR(C56=0,VLOOKUP(A56,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A56,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C56" s="100" t="str">
+        <v>24</v>
+      </c>
+      <c r="C56" s="100">
         <f>IF(IFERROR(VLOOKUP(A56,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A56,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D56" s="92" t="str">
+        <v>5</v>
+      </c>
+      <c r="D56" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5377</v>
       </c>
       <c r="E56" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A56,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A56,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F56" s="93" t="str">
+      <c r="F56" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="93" t="str">
+        <v>9.2764378478664194E-4</v>
+      </c>
+      <c r="G56" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99758812615955472</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -24342,29 +25833,29 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B57" s="99" t="str">
+      <c r="B57" s="99">
         <f>IFERROR(IF(OR(C57=0,VLOOKUP(A57,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A57,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C57" s="100" t="str">
+        <v>21</v>
+      </c>
+      <c r="C57" s="100">
         <f>IF(IFERROR(VLOOKUP(A57,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A57,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D57" s="92" t="str">
+        <v>5</v>
+      </c>
+      <c r="D57" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5382</v>
       </c>
       <c r="E57" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A57,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A57,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F57" s="93" t="str">
+      <c r="F57" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="93" t="str">
+        <v>9.2764378478664194E-4</v>
+      </c>
+      <c r="G57" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99851576994434132</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -24372,29 +25863,29 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B58" s="99" t="str">
+      <c r="B58" s="99">
         <f>IFERROR(IF(OR(C58=0,VLOOKUP(A58,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A58,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C58" s="100" t="str">
+        <v>18</v>
+      </c>
+      <c r="C58" s="100">
         <f>IF(IFERROR(VLOOKUP(A58,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A58,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D58" s="92" t="str">
+        <v>5</v>
+      </c>
+      <c r="D58" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5387</v>
       </c>
       <c r="E58" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A58,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A58,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F58" s="93" t="str">
+      <c r="F58" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="93" t="str">
+        <v>9.2764378478664194E-4</v>
+      </c>
+      <c r="G58" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99944341372912804</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -24402,29 +25893,29 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B59" s="99" t="str">
+      <c r="B59" s="99">
         <f>IFERROR(IF(OR(C59=0,VLOOKUP(A59,'Risk assessment - DFMEA '!$A:$C,3,FALSE)=0),"",IFERROR(VLOOKUP(A59,'Risk assessment - DFMEA '!$A:$C,3,FALSE),"")),"")</f>
-        <v/>
-      </c>
-      <c r="C59" s="100" t="str">
+        <v>10</v>
+      </c>
+      <c r="C59" s="100">
         <f>IF(IFERROR(VLOOKUP(A59,'Risk assessment - DFMEA '!A:L,11,FALSE),"")=0,"",IFERROR(VLOOKUP(A59,'Risk assessment - DFMEA '!A:L,11,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D59" s="92" t="str">
+        <v>3</v>
+      </c>
+      <c r="D59" s="92">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5390</v>
       </c>
       <c r="E59" s="92" t="str">
         <f>IF(IFERROR(VLOOKUP(A59,'Risk assessment - DFMEA '!A:Q,17,FALSE),"")=0,"",IFERROR(VLOOKUP(A59,'Risk assessment - DFMEA '!A:Q,17,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F59" s="93" t="str">
+      <c r="F59" s="93">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="93" t="str">
+        <v>5.5658627087198519E-4</v>
+      </c>
+      <c r="G59" s="93">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">

--- a/RB-Blessing/FMEA.xlsx
+++ b/RB-Blessing/FMEA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirochm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18167087-6F0B-4546-9B25-7666D6B053C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F6E5D-71A6-41E9-9F01-57602D7D7BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="860" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements - criteria list" sheetId="19" r:id="rId1"/>
@@ -2137,7 +2137,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2581,12 +2581,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4186,6 +4180,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4200,30 +4206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4257,6 +4239,57 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="63" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4315,12 +4348,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4329,27 +4356,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4401,18 +4407,6 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4664,199 +4658,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Pareto!$B$6:$B$30</c:f>
+              <c:f>Pareto!$B$6:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[0]!RPZRange</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A80-6148-B28E-333E4461905D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pareto!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RPZ New</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Pareto!$B$6:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4947,146 +4752,279 @@
                 <c:pt idx="29">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!RPZNRange</c:f>
+              <c:f>Pareto!$C$6:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3445-3B46-AB4F-BC7C252F45C2}"/>
+              <c16:uniqueId val="{00000000-0A80-6148-B28E-333E4461905D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="159992064"/>
-        <c:axId val="159997952"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pareto!$G$5</c:f>
+              <c:f>Pareto!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>% kum</c:v>
+                  <c:v>RPZ New</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Pareto!$B$6:$B$35</c:f>
+              <c:f>Pareto!$B$6:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -5177,15 +5115,476 @@
                 <c:pt idx="29">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pareto!kumRange</c:f>
+              <c:f>Pareto!$E$6:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3445-3B46-AB4F-BC7C252F45C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="159992064"/>
+        <c:axId val="159997952"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% kum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Pareto!$B$6:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$G$6:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
@@ -5260,6 +5659,93 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.86029684601113177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8719851576994434</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88367346938775515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89536178107606679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90463821892393326</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91298701298701301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92133580705009277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92968460111317253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93803339517625228</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94638218923933215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95194805194805199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95751391465677183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96307977736549166</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9677179962894249</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97235621521335802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97625231910946197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98014842300556582</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98404452690166977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98682745825602969</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98849721706864568</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99016697588126157</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99146567717996292</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99276437847866417</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99406307977736552</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99536178107606677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99666048237476812</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99758812615955472</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99851576994434132</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99944341372912804</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6743,10 +7229,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:4" ht="12.75" thickBot="1">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="313"/>
+      <c r="C2" s="317"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="83" t="s">
@@ -6817,11 +7303,11 @@
     <row r="9" spans="1:4" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:4" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="309" t="s">
+      <c r="B10" s="313" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="310"/>
-      <c r="D10" s="311"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="315"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="83" t="s">
@@ -6910,10 +7396,10 @@
     <row r="18" spans="1:3" ht="12.75" thickBot="1"/>
     <row r="19" spans="1:3" ht="12.75" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="313" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="311"/>
+      <c r="C19" s="315"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" thickBot="1">
       <c r="A20" s="83" t="s">
@@ -11898,28 +12384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="74.25" customHeight="1">
-      <c r="B1" s="242"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="248" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
       <c r="V1" s="133"/>
     </row>
     <row r="2" spans="2:25" ht="15.75" thickBot="1">
@@ -14753,42 +15239,42 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="80.25" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="250" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
     </row>
     <row r="4" spans="1:20" ht="409.5" customHeight="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="250" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="250"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="250"/>
       <c r="P4" s="225"/>
       <c r="Q4" s="225"/>
       <c r="R4" s="225"/>
@@ -14832,18 +15318,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="75.95" customHeight="1">
-      <c r="A1" s="255"/>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
+      <c r="A1" s="251"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
       <c r="M1" s="174"/>
       <c r="N1" s="174"/>
       <c r="O1" s="174"/>
@@ -14862,35 +15348,35 @@
     </row>
     <row r="2" spans="1:28" ht="23.25">
       <c r="A2" s="178"/>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="261" t="s">
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
+      <c r="Y2" s="258"/>
+      <c r="Z2" s="259"/>
       <c r="AA2" s="177"/>
     </row>
     <row r="3" spans="1:28" ht="162.94999999999999" customHeight="1">
@@ -14906,22 +15392,22 @@
       <c r="J3" s="202"/>
       <c r="K3" s="202"/>
       <c r="L3" s="202"/>
-      <c r="M3" s="264" t="s">
+      <c r="M3" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="264"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="249"/>
-      <c r="U3" s="249"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="253"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="268"/>
       <c r="AA3" s="179"/>
     </row>
     <row r="4" spans="1:28" ht="45">
@@ -14970,23 +15456,23 @@
       <c r="O4" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
-      <c r="T4" s="250"/>
-      <c r="U4" s="250"/>
-      <c r="V4" s="252"/>
-      <c r="W4" s="252"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="265"/>
+      <c r="R4" s="265"/>
+      <c r="S4" s="265"/>
+      <c r="T4" s="265"/>
+      <c r="U4" s="265"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="269"/>
+      <c r="Z4" s="269"/>
       <c r="AA4" s="182" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="266" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="183"/>
@@ -15024,12 +15510,12 @@
         <f>SUM(P5:W5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="247" t="s">
+      <c r="AB5" s="266" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A6" s="248"/>
+      <c r="A6" s="267"/>
       <c r="B6" s="190"/>
       <c r="C6" s="190"/>
       <c r="D6" s="190"/>
@@ -15065,10 +15551,10 @@
         <f t="shared" ref="AA6:AA14" si="2">SUM(P6:W6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="248"/>
+      <c r="AB6" s="267"/>
     </row>
     <row r="7" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A7" s="248"/>
+      <c r="A7" s="267"/>
       <c r="B7" s="190"/>
       <c r="C7" s="190"/>
       <c r="D7" s="190"/>
@@ -15104,10 +15590,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="248"/>
+      <c r="AB7" s="267"/>
     </row>
     <row r="8" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A8" s="248"/>
+      <c r="A8" s="267"/>
       <c r="B8" s="183"/>
       <c r="C8" s="183"/>
       <c r="D8" s="183"/>
@@ -15143,10 +15629,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="248"/>
+      <c r="AB8" s="267"/>
     </row>
     <row r="9" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A9" s="248"/>
+      <c r="A9" s="267"/>
       <c r="B9" s="183"/>
       <c r="C9" s="183"/>
       <c r="D9" s="183"/>
@@ -15182,10 +15668,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="248"/>
+      <c r="AB9" s="267"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="248"/>
+      <c r="A10" s="267"/>
       <c r="B10" s="183"/>
       <c r="C10" s="183"/>
       <c r="D10" s="183"/>
@@ -15221,10 +15707,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="248"/>
+      <c r="AB10" s="267"/>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A11" s="248"/>
+      <c r="A11" s="267"/>
       <c r="B11" s="190"/>
       <c r="C11" s="190"/>
       <c r="D11" s="190"/>
@@ -15260,10 +15746,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="248"/>
+      <c r="AB11" s="267"/>
     </row>
     <row r="12" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A12" s="248"/>
+      <c r="A12" s="267"/>
       <c r="B12" s="183"/>
       <c r="C12" s="183"/>
       <c r="D12" s="183"/>
@@ -15299,10 +15785,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="248"/>
+      <c r="AB12" s="267"/>
     </row>
     <row r="13" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A13" s="248"/>
+      <c r="A13" s="267"/>
       <c r="B13" s="190"/>
       <c r="C13" s="183"/>
       <c r="D13" s="183"/>
@@ -15338,10 +15824,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="248"/>
+      <c r="AB13" s="267"/>
     </row>
     <row r="14" spans="1:28" ht="23.25">
-      <c r="A14" s="248"/>
+      <c r="A14" s="267"/>
       <c r="B14" s="183"/>
       <c r="C14" s="183"/>
       <c r="D14" s="183"/>
@@ -15377,7 +15863,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="248"/>
+      <c r="AB14" s="267"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="181" t="s">
@@ -15481,6 +15967,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="AB5:AB14"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -15491,14 +15985,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="AB5:AB14"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15790,9 +16276,9 @@
   </sheetPr>
   <dimension ref="A1:AD162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -15822,36 +16308,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D1" s="269" t="s">
+      <c r="D1" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="271" t="s">
+      <c r="E1" s="284" t="s">
         <v>291</v>
       </c>
       <c r="F1" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="277" t="s">
+      <c r="G1" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="278"/>
-      <c r="O1" s="278"/>
-      <c r="P1" s="278"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="278"/>
-      <c r="S1" s="278"/>
-      <c r="T1" s="278"/>
-      <c r="U1" s="278"/>
-      <c r="V1" s="278"/>
-      <c r="W1" s="278"/>
-      <c r="X1" s="278"/>
-      <c r="Y1" s="279"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="291"/>
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="292"/>
       <c r="AA1" s="78">
         <v>1</v>
       </c>
@@ -15866,28 +16352,28 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D2" s="270"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
-      <c r="O2" s="281"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="281"/>
-      <c r="R2" s="281"/>
-      <c r="S2" s="281"/>
-      <c r="T2" s="281"/>
-      <c r="U2" s="281"/>
-      <c r="V2" s="281"/>
-      <c r="W2" s="281"/>
-      <c r="X2" s="281"/>
-      <c r="Y2" s="282"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="295"/>
       <c r="AA2" s="78">
         <v>2</v>
       </c>
@@ -15902,28 +16388,28 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D3" s="270"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="282"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="294"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="294"/>
+      <c r="X3" s="294"/>
+      <c r="Y3" s="295"/>
       <c r="AA3" s="78">
         <v>3</v>
       </c>
@@ -15935,102 +16421,102 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="282" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="274">
+      <c r="E4" s="287">
         <f ca="1">TODAY()</f>
-        <v>43794</v>
-      </c>
-      <c r="F4" s="266"/>
-      <c r="G4" s="280"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281"/>
-      <c r="Y4" s="282"/>
+        <v>43798</v>
+      </c>
+      <c r="F4" s="279"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="294"/>
+      <c r="O4" s="294"/>
+      <c r="P4" s="294"/>
+      <c r="Q4" s="294"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="294"/>
+      <c r="T4" s="294"/>
+      <c r="U4" s="294"/>
+      <c r="V4" s="294"/>
+      <c r="W4" s="294"/>
+      <c r="X4" s="294"/>
+      <c r="Y4" s="295"/>
       <c r="AA4" s="78">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D5" s="270"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="281"/>
-      <c r="R5" s="281"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="281"/>
-      <c r="W5" s="281"/>
-      <c r="X5" s="281"/>
-      <c r="Y5" s="282"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="294"/>
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
+      <c r="P5" s="294"/>
+      <c r="Q5" s="294"/>
+      <c r="R5" s="294"/>
+      <c r="S5" s="294"/>
+      <c r="T5" s="294"/>
+      <c r="U5" s="294"/>
+      <c r="V5" s="294"/>
+      <c r="W5" s="294"/>
+      <c r="X5" s="294"/>
+      <c r="Y5" s="295"/>
       <c r="AA5" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="D6" s="270"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="281"/>
-      <c r="P6" s="281"/>
-      <c r="Q6" s="281"/>
-      <c r="R6" s="281"/>
-      <c r="S6" s="281"/>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="281"/>
-      <c r="W6" s="281"/>
-      <c r="X6" s="281"/>
-      <c r="Y6" s="282"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
+      <c r="N6" s="294"/>
+      <c r="O6" s="294"/>
+      <c r="P6" s="294"/>
+      <c r="Q6" s="294"/>
+      <c r="R6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="295"/>
       <c r="AA6" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" ht="45">
-      <c r="D7" s="295" t="s">
+      <c r="D7" s="275" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="285" t="s">
+      <c r="E7" s="277" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="285" t="s">
+      <c r="F7" s="277" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="285" t="s">
+      <c r="G7" s="277" t="s">
         <v>272</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -16048,43 +16534,43 @@
       <c r="L7" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="287" t="s">
+      <c r="M7" s="298" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="283" t="s">
+      <c r="N7" s="296" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="283" t="s">
+      <c r="O7" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="P7" s="291" t="s">
+      <c r="P7" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="293" t="s">
+      <c r="Q7" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="294" t="s">
+      <c r="R7" s="273" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="289" t="s">
+      <c r="S7" s="300" t="s">
         <v>163</v>
       </c>
-      <c r="T7" s="289" t="s">
+      <c r="T7" s="300" t="s">
         <v>164</v>
       </c>
-      <c r="U7" s="289" t="s">
+      <c r="U7" s="300" t="s">
         <v>165</v>
       </c>
-      <c r="V7" s="268" t="s">
+      <c r="V7" s="281" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="290" t="s">
+      <c r="W7" s="274" t="s">
         <v>166</v>
       </c>
-      <c r="X7" s="290" t="s">
+      <c r="X7" s="274" t="s">
         <v>167</v>
       </c>
-      <c r="Y7" s="290" t="s">
+      <c r="Y7" s="274" t="s">
         <v>168</v>
       </c>
       <c r="AA7" s="3">
@@ -16092,10 +16578,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="D8" s="296"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
       <c r="H8" s="29" t="s">
         <v>2</v>
       </c>
@@ -16111,19 +16597,19 @@
       <c r="L8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="288"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="284"/>
-      <c r="P8" s="292"/>
-      <c r="Q8" s="293"/>
-      <c r="R8" s="294"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="289"/>
-      <c r="U8" s="289"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
+      <c r="M8" s="299"/>
+      <c r="N8" s="297"/>
+      <c r="O8" s="297"/>
+      <c r="P8" s="271"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="300"/>
+      <c r="T8" s="300"/>
+      <c r="U8" s="300"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
       <c r="AA8" s="3">
         <v>8</v>
       </c>
@@ -16446,7 +16932,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H14,I14,J14),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M14" s="316" t="s">
+      <c r="M14" s="244" t="s">
         <v>282</v>
       </c>
       <c r="N14" s="21">
@@ -16517,7 +17003,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H15,I15,J15),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M15" s="316" t="s">
+      <c r="M15" s="244" t="s">
         <v>283</v>
       </c>
       <c r="N15" s="21">
@@ -16588,7 +17074,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H16,I16,J16),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M16" s="316" t="s">
+      <c r="M16" s="244" t="s">
         <v>284</v>
       </c>
       <c r="N16" s="21">
@@ -16659,7 +17145,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H17,I17,J17),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M17" s="316" t="s">
+      <c r="M17" s="244" t="s">
         <v>285</v>
       </c>
       <c r="N17" s="21">
@@ -16707,7 +17193,7 @@
       <c r="E18" s="240" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="315" t="s">
+      <c r="F18" s="243" t="s">
         <v>266</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -17944,7 +18430,7 @@
       <c r="D38" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="314" t="s">
+      <c r="E38" s="242" t="s">
         <v>236</v>
       </c>
       <c r="F38" s="240" t="s">
@@ -18005,7 +18491,7 @@
       <c r="D39" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="314" t="s">
+      <c r="E39" s="242" t="s">
         <v>236</v>
       </c>
       <c r="F39" s="240" t="s">
@@ -19342,7 +19828,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H60,I60,J60),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M60" s="316" t="s">
+      <c r="M60" s="244" t="s">
         <v>282</v>
       </c>
       <c r="N60" s="21">
@@ -19445,7 +19931,7 @@
       <c r="C62" s="90">
         <v>53</v>
       </c>
-      <c r="D62" s="317" t="s">
+      <c r="D62" s="245" t="s">
         <v>299</v>
       </c>
       <c r="E62" s="240" t="s">
@@ -19506,7 +19992,7 @@
       <c r="C63" s="90">
         <v>54</v>
       </c>
-      <c r="D63" s="317" t="s">
+      <c r="D63" s="245" t="s">
         <v>299</v>
       </c>
       <c r="E63" s="240" t="s">
@@ -19565,7 +20051,7 @@
         <v>5.5000000000000003E-8</v>
       </c>
       <c r="C64" s="90"/>
-      <c r="D64" s="317"/>
+      <c r="D64" s="245"/>
       <c r="E64" s="240"/>
       <c r="F64" s="240"/>
       <c r="G64" s="2" t="s">
@@ -19612,7 +20098,7 @@
         <v>5.6000000000000005E-8</v>
       </c>
       <c r="C65" s="90"/>
-      <c r="D65" s="317"/>
+      <c r="D65" s="245"/>
       <c r="E65" s="240"/>
       <c r="F65" s="240"/>
       <c r="G65" s="2" t="s">
@@ -24118,13 +24604,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="W7:W8"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="D1:D3"/>
@@ -24141,6 +24620,13 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="X7:X8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:L162">
     <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="H">
@@ -24212,8 +24698,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -24230,11 +24716,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="B1" s="297"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="299"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="303"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31">
         <f>'[2]FMEA_system_sub-system_comp-1'!D1:Q1</f>
@@ -24242,11 +24728,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" s="300"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="302"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="306"/>
       <c r="G2" s="33" t="s">
         <v>26</v>
       </c>
@@ -24256,23 +24742,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.1" customHeight="1">
-      <c r="B3" s="303"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="305"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="309"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="37" customFormat="1" ht="11.25">
-      <c r="B4" s="306"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">

--- a/RB-Blessing/FMEA.xlsx
+++ b/RB-Blessing/FMEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92860030-D401-4A22-B5F3-F8277ED25BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601AD638-BA4F-475E-9F54-3E7FC0AE4D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4231,6 +4231,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4263,57 +4287,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="63" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="66" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="68" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="69" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4372,6 +4345,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4380,6 +4359,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -15344,18 +15344,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="75.95" customHeight="1">
-      <c r="A1" s="250"/>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
+      <c r="A1" s="258"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
       <c r="M1" s="173"/>
       <c r="N1" s="173"/>
       <c r="O1" s="173"/>
@@ -15374,35 +15374,35 @@
     </row>
     <row r="2" spans="1:28" ht="23.25">
       <c r="A2" s="177"/>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="259" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="256" t="s">
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="264" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
-      <c r="Y2" s="257"/>
-      <c r="Z2" s="258"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
       <c r="AA2" s="176"/>
     </row>
     <row r="3" spans="1:28" ht="162.94999999999999" customHeight="1">
@@ -15418,22 +15418,22 @@
       <c r="J3" s="201"/>
       <c r="K3" s="201"/>
       <c r="L3" s="201"/>
-      <c r="M3" s="259" t="s">
+      <c r="M3" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="267"/>
-      <c r="Z3" s="267"/>
+      <c r="N3" s="267"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
       <c r="AA3" s="178"/>
     </row>
     <row r="4" spans="1:28" ht="45">
@@ -15482,23 +15482,23 @@
       <c r="O4" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="264"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="264"/>
-      <c r="U4" s="264"/>
-      <c r="V4" s="262"/>
-      <c r="W4" s="262"/>
-      <c r="X4" s="268"/>
-      <c r="Y4" s="268"/>
-      <c r="Z4" s="268"/>
+      <c r="P4" s="255"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="253"/>
+      <c r="T4" s="253"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="255"/>
+      <c r="W4" s="255"/>
+      <c r="X4" s="257"/>
+      <c r="Y4" s="257"/>
+      <c r="Z4" s="257"/>
       <c r="AA4" s="181" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="250" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="182"/>
@@ -15536,12 +15536,12 @@
         <f>SUM(P5:W5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="265" t="s">
+      <c r="AB5" s="250" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A6" s="266"/>
+      <c r="A6" s="251"/>
       <c r="B6" s="189"/>
       <c r="C6" s="189"/>
       <c r="D6" s="189"/>
@@ -15577,10 +15577,10 @@
         <f t="shared" ref="AA6:AA14" si="2">SUM(P6:W6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="266"/>
+      <c r="AB6" s="251"/>
     </row>
     <row r="7" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A7" s="266"/>
+      <c r="A7" s="251"/>
       <c r="B7" s="189"/>
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
@@ -15616,10 +15616,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="266"/>
+      <c r="AB7" s="251"/>
     </row>
     <row r="8" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A8" s="266"/>
+      <c r="A8" s="251"/>
       <c r="B8" s="182"/>
       <c r="C8" s="182"/>
       <c r="D8" s="182"/>
@@ -15655,10 +15655,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="266"/>
+      <c r="AB8" s="251"/>
     </row>
     <row r="9" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A9" s="266"/>
+      <c r="A9" s="251"/>
       <c r="B9" s="182"/>
       <c r="C9" s="182"/>
       <c r="D9" s="182"/>
@@ -15694,10 +15694,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="266"/>
+      <c r="AB9" s="251"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="266"/>
+      <c r="A10" s="251"/>
       <c r="B10" s="182"/>
       <c r="C10" s="182"/>
       <c r="D10" s="182"/>
@@ -15733,10 +15733,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="266"/>
+      <c r="AB10" s="251"/>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A11" s="266"/>
+      <c r="A11" s="251"/>
       <c r="B11" s="189"/>
       <c r="C11" s="189"/>
       <c r="D11" s="189"/>
@@ -15772,10 +15772,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="266"/>
+      <c r="AB11" s="251"/>
     </row>
     <row r="12" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A12" s="266"/>
+      <c r="A12" s="251"/>
       <c r="B12" s="182"/>
       <c r="C12" s="182"/>
       <c r="D12" s="182"/>
@@ -15811,10 +15811,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="266"/>
+      <c r="AB12" s="251"/>
     </row>
     <row r="13" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A13" s="266"/>
+      <c r="A13" s="251"/>
       <c r="B13" s="189"/>
       <c r="C13" s="182"/>
       <c r="D13" s="182"/>
@@ -15850,10 +15850,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="266"/>
+      <c r="AB13" s="251"/>
     </row>
     <row r="14" spans="1:28" ht="23.25">
-      <c r="A14" s="266"/>
+      <c r="A14" s="251"/>
       <c r="B14" s="182"/>
       <c r="C14" s="182"/>
       <c r="D14" s="182"/>
@@ -15889,7 +15889,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="266"/>
+      <c r="AB14" s="251"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="180" t="s">
@@ -15993,14 +15993,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="AB5:AB14"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -16011,6 +16003,14 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="AB5:AB14"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16302,8 +16302,8 @@
   </sheetPr>
   <dimension ref="A1:AD162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -16334,36 +16334,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D1" s="281" t="s">
+      <c r="D1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="283" t="s">
+      <c r="E1" s="274" t="s">
         <v>289</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="289" t="s">
+      <c r="G1" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
-      <c r="T1" s="290"/>
-      <c r="U1" s="290"/>
-      <c r="V1" s="290"/>
-      <c r="W1" s="290"/>
-      <c r="X1" s="290"/>
-      <c r="Y1" s="291"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="282"/>
       <c r="AA1" s="78">
         <v>1</v>
       </c>
@@ -16378,28 +16378,28 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D2" s="282"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="293"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="294"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="284"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="284"/>
+      <c r="M2" s="284"/>
+      <c r="N2" s="284"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="284"/>
+      <c r="R2" s="284"/>
+      <c r="S2" s="284"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
+      <c r="X2" s="284"/>
+      <c r="Y2" s="285"/>
       <c r="AA2" s="78">
         <v>2</v>
       </c>
@@ -16414,28 +16414,28 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D3" s="282"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="293"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="294"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
+      <c r="Y3" s="285"/>
       <c r="AA3" s="78">
         <v>3</v>
       </c>
@@ -16447,102 +16447,102 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D4" s="281" t="s">
+      <c r="D4" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="286">
+      <c r="E4" s="277">
         <f ca="1">TODAY()</f>
         <v>43798</v>
       </c>
-      <c r="F4" s="278"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
-      <c r="K4" s="293"/>
-      <c r="L4" s="293"/>
-      <c r="M4" s="293"/>
-      <c r="N4" s="293"/>
-      <c r="O4" s="293"/>
-      <c r="P4" s="293"/>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="293"/>
-      <c r="S4" s="293"/>
-      <c r="T4" s="293"/>
-      <c r="U4" s="293"/>
-      <c r="V4" s="293"/>
-      <c r="W4" s="293"/>
-      <c r="X4" s="293"/>
-      <c r="Y4" s="294"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="284"/>
+      <c r="N4" s="284"/>
+      <c r="O4" s="284"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="284"/>
+      <c r="R4" s="284"/>
+      <c r="S4" s="284"/>
+      <c r="T4" s="284"/>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="284"/>
+      <c r="X4" s="284"/>
+      <c r="Y4" s="285"/>
       <c r="AA4" s="78">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D5" s="282"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="293"/>
-      <c r="L5" s="293"/>
-      <c r="M5" s="293"/>
-      <c r="N5" s="293"/>
-      <c r="O5" s="293"/>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="293"/>
-      <c r="S5" s="293"/>
-      <c r="T5" s="293"/>
-      <c r="U5" s="293"/>
-      <c r="V5" s="293"/>
-      <c r="W5" s="293"/>
-      <c r="X5" s="293"/>
-      <c r="Y5" s="294"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284"/>
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="284"/>
+      <c r="N5" s="284"/>
+      <c r="O5" s="284"/>
+      <c r="P5" s="284"/>
+      <c r="Q5" s="284"/>
+      <c r="R5" s="284"/>
+      <c r="S5" s="284"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="284"/>
+      <c r="W5" s="284"/>
+      <c r="X5" s="284"/>
+      <c r="Y5" s="285"/>
       <c r="AA5" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="D6" s="282"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
-      <c r="M6" s="293"/>
-      <c r="N6" s="293"/>
-      <c r="O6" s="293"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="293"/>
-      <c r="R6" s="293"/>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="294"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="284"/>
+      <c r="N6" s="284"/>
+      <c r="O6" s="284"/>
+      <c r="P6" s="284"/>
+      <c r="Q6" s="284"/>
+      <c r="R6" s="284"/>
+      <c r="S6" s="284"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="284"/>
+      <c r="W6" s="284"/>
+      <c r="X6" s="284"/>
+      <c r="Y6" s="285"/>
       <c r="AA6" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" ht="45">
-      <c r="D7" s="274" t="s">
+      <c r="D7" s="298" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="276" t="s">
+      <c r="E7" s="288" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="276" t="s">
+      <c r="F7" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="276" t="s">
+      <c r="G7" s="288" t="s">
         <v>270</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -16560,43 +16560,43 @@
       <c r="L7" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="M7" s="297" t="s">
+      <c r="M7" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="N7" s="295" t="s">
+      <c r="N7" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="295" t="s">
+      <c r="O7" s="286" t="s">
         <v>335</v>
       </c>
-      <c r="P7" s="269" t="s">
+      <c r="P7" s="294" t="s">
         <v>336</v>
       </c>
-      <c r="Q7" s="271" t="s">
+      <c r="Q7" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="272" t="s">
+      <c r="R7" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="299" t="s">
+      <c r="S7" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="T7" s="299" t="s">
+      <c r="T7" s="292" t="s">
         <v>162</v>
       </c>
-      <c r="U7" s="299" t="s">
+      <c r="U7" s="292" t="s">
         <v>163</v>
       </c>
-      <c r="V7" s="280" t="s">
+      <c r="V7" s="271" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="273" t="s">
+      <c r="W7" s="293" t="s">
         <v>164</v>
       </c>
-      <c r="X7" s="273" t="s">
+      <c r="X7" s="293" t="s">
         <v>165</v>
       </c>
-      <c r="Y7" s="273" t="s">
+      <c r="Y7" s="293" t="s">
         <v>166</v>
       </c>
       <c r="AA7" s="3">
@@ -16604,10 +16604,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="D8" s="275"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
       <c r="H8" s="29" t="s">
         <v>2</v>
       </c>
@@ -16623,19 +16623,19 @@
       <c r="L8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="298"/>
-      <c r="N8" s="296"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="271"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="299"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="299"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="287"/>
+      <c r="P8" s="295"/>
+      <c r="Q8" s="296"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="271"/>
+      <c r="W8" s="293"/>
+      <c r="X8" s="293"/>
+      <c r="Y8" s="293"/>
       <c r="AA8" s="3">
         <v>8</v>
       </c>
@@ -24790,6 +24790,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="D1:D3"/>
@@ -24806,13 +24813,6 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="X7:X8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:L162">
     <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="H">

--- a/RB-Blessing/FMEA.xlsx
+++ b/RB-Blessing/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601AD638-BA4F-475E-9F54-3E7FC0AE4D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6246B6B-750B-4BB8-AE79-0A9F388460B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="339">
   <si>
     <t>1</t>
   </si>
@@ -2155,6 +2155,9 @@
   <si>
     <t>Team: 5620331, 3225750, 1790705, 9269794</t>
   </si>
+  <si>
+    <t>bei Hersteller nach Anwendungstests der Dichtungen erkundigen, Montagewerkzeug zum sachgerechten Anziehen der Dichtungen beilegen</t>
+  </si>
 </sst>
 </file>
 
@@ -3558,7 +3561,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4203,9 +4206,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -7255,10 +7255,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:4" ht="12.75" thickBot="1">
-      <c r="B2" s="315" t="s">
+      <c r="B2" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="316"/>
+      <c r="C2" s="315"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" thickBot="1">
       <c r="A3" s="83" t="s">
@@ -7329,11 +7329,11 @@
     <row r="9" spans="1:4" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:4" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="311" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="313"/>
-      <c r="D10" s="314"/>
+      <c r="C10" s="312"/>
+      <c r="D10" s="313"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="83" t="s">
@@ -7422,10 +7422,10 @@
     <row r="18" spans="1:3" ht="12.75" thickBot="1"/>
     <row r="19" spans="1:3" ht="12.75" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="311" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="314"/>
+      <c r="C19" s="313"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" thickBot="1">
       <c r="A20" s="83" t="s">
@@ -12410,28 +12410,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="74.25" customHeight="1">
-      <c r="B1" s="245"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="247" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
       <c r="V1" s="132"/>
     </row>
     <row r="2" spans="2:25" ht="15.75" thickBot="1">
@@ -15265,42 +15265,42 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="80.25" customHeight="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="248"/>
     </row>
     <row r="4" spans="1:20" ht="409.5" customHeight="1">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
       <c r="P4" s="224"/>
       <c r="Q4" s="224"/>
       <c r="R4" s="224"/>
@@ -15344,18 +15344,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="75.95" customHeight="1">
-      <c r="A1" s="258"/>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
+      <c r="A1" s="257"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
       <c r="M1" s="173"/>
       <c r="N1" s="173"/>
       <c r="O1" s="173"/>
@@ -15374,35 +15374,35 @@
     </row>
     <row r="2" spans="1:28" ht="23.25">
       <c r="A2" s="177"/>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="264" t="s">
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="263" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="265"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="265"/>
-      <c r="U2" s="265"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-      <c r="X2" s="265"/>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="266"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="265"/>
       <c r="AA2" s="176"/>
     </row>
     <row r="3" spans="1:28" ht="162.94999999999999" customHeight="1">
@@ -15418,22 +15418,22 @@
       <c r="J3" s="201"/>
       <c r="K3" s="201"/>
       <c r="L3" s="201"/>
-      <c r="M3" s="267" t="s">
+      <c r="M3" s="266" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="267"/>
-      <c r="O3" s="268"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="255"/>
       <c r="AA3" s="178"/>
     </row>
     <row r="4" spans="1:28" ht="45">
@@ -15482,23 +15482,23 @@
       <c r="O4" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="253"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="257"/>
-      <c r="Y4" s="257"/>
-      <c r="Z4" s="257"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="252"/>
+      <c r="S4" s="252"/>
+      <c r="T4" s="252"/>
+      <c r="U4" s="252"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
       <c r="AA4" s="181" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="249" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="182"/>
@@ -15536,12 +15536,12 @@
         <f>SUM(P5:W5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="250" t="s">
+      <c r="AB5" s="249" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A6" s="251"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="189"/>
       <c r="C6" s="189"/>
       <c r="D6" s="189"/>
@@ -15577,10 +15577,10 @@
         <f t="shared" ref="AA6:AA14" si="2">SUM(P6:W6)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="251"/>
+      <c r="AB6" s="250"/>
     </row>
     <row r="7" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A7" s="251"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="189"/>
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
@@ -15616,10 +15616,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="251"/>
+      <c r="AB7" s="250"/>
     </row>
     <row r="8" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A8" s="251"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="182"/>
       <c r="C8" s="182"/>
       <c r="D8" s="182"/>
@@ -15655,10 +15655,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="251"/>
+      <c r="AB8" s="250"/>
     </row>
     <row r="9" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A9" s="251"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="182"/>
       <c r="C9" s="182"/>
       <c r="D9" s="182"/>
@@ -15694,10 +15694,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="251"/>
+      <c r="AB9" s="250"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="251"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="182"/>
       <c r="C10" s="182"/>
       <c r="D10" s="182"/>
@@ -15733,10 +15733,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="251"/>
+      <c r="AB10" s="250"/>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A11" s="251"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="189"/>
       <c r="C11" s="189"/>
       <c r="D11" s="189"/>
@@ -15772,10 +15772,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="251"/>
+      <c r="AB11" s="250"/>
     </row>
     <row r="12" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A12" s="251"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="182"/>
       <c r="C12" s="182"/>
       <c r="D12" s="182"/>
@@ -15811,10 +15811,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="251"/>
+      <c r="AB12" s="250"/>
     </row>
     <row r="13" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A13" s="251"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="189"/>
       <c r="C13" s="182"/>
       <c r="D13" s="182"/>
@@ -15850,10 +15850,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="251"/>
+      <c r="AB13" s="250"/>
     </row>
     <row r="14" spans="1:28" ht="23.25">
-      <c r="A14" s="251"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="182"/>
       <c r="C14" s="182"/>
       <c r="D14" s="182"/>
@@ -15889,7 +15889,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="251"/>
+      <c r="AB14" s="250"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="180" t="s">
@@ -16302,9 +16302,9 @@
   </sheetPr>
   <dimension ref="A1:AD162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -16334,36 +16334,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D1" s="272" t="s">
+      <c r="D1" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="274" t="s">
+      <c r="E1" s="273" t="s">
         <v>289</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="280" t="s">
+      <c r="G1" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="281"/>
-      <c r="S1" s="281"/>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="282"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
+      <c r="P1" s="280"/>
+      <c r="Q1" s="280"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="280"/>
+      <c r="T1" s="280"/>
+      <c r="U1" s="280"/>
+      <c r="V1" s="280"/>
+      <c r="W1" s="280"/>
+      <c r="X1" s="280"/>
+      <c r="Y1" s="281"/>
       <c r="AA1" s="78">
         <v>1</v>
       </c>
@@ -16378,28 +16378,28 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D2" s="273"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="284"/>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="284"/>
-      <c r="R2" s="284"/>
-      <c r="S2" s="284"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="285"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="283"/>
+      <c r="X2" s="283"/>
+      <c r="Y2" s="284"/>
       <c r="AA2" s="78">
         <v>2</v>
       </c>
@@ -16414,28 +16414,28 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D3" s="273"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="284"/>
-      <c r="N3" s="284"/>
-      <c r="O3" s="284"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="284"/>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="284"/>
-      <c r="V3" s="284"/>
-      <c r="W3" s="284"/>
-      <c r="X3" s="284"/>
-      <c r="Y3" s="285"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="284"/>
       <c r="AA3" s="78">
         <v>3</v>
       </c>
@@ -16447,102 +16447,102 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="277">
+      <c r="E4" s="276">
         <f ca="1">TODAY()</f>
         <v>43798</v>
       </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="284"/>
-      <c r="N4" s="284"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="284"/>
-      <c r="Q4" s="284"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="284"/>
-      <c r="T4" s="284"/>
-      <c r="U4" s="284"/>
-      <c r="V4" s="284"/>
-      <c r="W4" s="284"/>
-      <c r="X4" s="284"/>
-      <c r="Y4" s="285"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="V4" s="283"/>
+      <c r="W4" s="283"/>
+      <c r="X4" s="283"/>
+      <c r="Y4" s="284"/>
       <c r="AA4" s="78">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="D5" s="273"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="284"/>
-      <c r="R5" s="284"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="284"/>
-      <c r="W5" s="284"/>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="285"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="283"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="283"/>
+      <c r="W5" s="283"/>
+      <c r="X5" s="283"/>
+      <c r="Y5" s="284"/>
       <c r="AA5" s="78">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="14.25" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="D6" s="273"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="284"/>
-      <c r="O6" s="284"/>
-      <c r="P6" s="284"/>
-      <c r="Q6" s="284"/>
-      <c r="R6" s="284"/>
-      <c r="S6" s="284"/>
-      <c r="T6" s="284"/>
-      <c r="U6" s="284"/>
-      <c r="V6" s="284"/>
-      <c r="W6" s="284"/>
-      <c r="X6" s="284"/>
-      <c r="Y6" s="285"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="283"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="284"/>
       <c r="AA6" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" ht="45">
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="297" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="288" t="s">
+      <c r="E7" s="287" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="288" t="s">
+      <c r="F7" s="287" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="288" t="s">
+      <c r="G7" s="287" t="s">
         <v>270</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -16560,43 +16560,43 @@
       <c r="L7" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="M7" s="290" t="s">
+      <c r="M7" s="289" t="s">
         <v>183</v>
       </c>
-      <c r="N7" s="286" t="s">
+      <c r="N7" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="286" t="s">
+      <c r="O7" s="285" t="s">
         <v>335</v>
       </c>
-      <c r="P7" s="294" t="s">
+      <c r="P7" s="293" t="s">
         <v>336</v>
       </c>
-      <c r="Q7" s="296" t="s">
+      <c r="Q7" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="297" t="s">
+      <c r="R7" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="292" t="s">
+      <c r="S7" s="291" t="s">
         <v>161</v>
       </c>
-      <c r="T7" s="292" t="s">
+      <c r="T7" s="291" t="s">
         <v>162</v>
       </c>
-      <c r="U7" s="292" t="s">
+      <c r="U7" s="291" t="s">
         <v>163</v>
       </c>
-      <c r="V7" s="271" t="s">
+      <c r="V7" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="293" t="s">
+      <c r="W7" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="X7" s="293" t="s">
+      <c r="X7" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="Y7" s="293" t="s">
+      <c r="Y7" s="292" t="s">
         <v>166</v>
       </c>
       <c r="AA7" s="3">
@@ -16604,10 +16604,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="D8" s="299"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
       <c r="H8" s="29" t="s">
         <v>2</v>
       </c>
@@ -16623,19 +16623,19 @@
       <c r="L8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="291"/>
-      <c r="N8" s="287"/>
-      <c r="O8" s="287"/>
-      <c r="P8" s="295"/>
-      <c r="Q8" s="296"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="292"/>
-      <c r="T8" s="292"/>
-      <c r="U8" s="292"/>
-      <c r="V8" s="271"/>
-      <c r="W8" s="293"/>
-      <c r="X8" s="293"/>
-      <c r="Y8" s="293"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="294"/>
+      <c r="Q8" s="295"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="270"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
       <c r="AA8" s="3">
         <v>8</v>
       </c>
@@ -16958,8 +16958,8 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H14,I14,J14),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M14" s="243" t="s">
-        <v>280</v>
+      <c r="M14" s="242" t="s">
+        <v>338</v>
       </c>
       <c r="N14" s="21">
         <v>10</v>
@@ -17029,7 +17029,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H15,I15,J15),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M15" s="243" t="s">
+      <c r="M15" s="242" t="s">
         <v>281</v>
       </c>
       <c r="N15" s="21">
@@ -17100,7 +17100,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H16,I16,J16),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M16" s="243" t="s">
+      <c r="M16" s="242" t="s">
         <v>282</v>
       </c>
       <c r="N16" s="21">
@@ -17171,7 +17171,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H17,I17,J17),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M17" s="243" t="s">
+      <c r="M17" s="242" t="s">
         <v>283</v>
       </c>
       <c r="N17" s="21">
@@ -17219,7 +17219,7 @@
       <c r="E18" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="242" t="s">
+      <c r="F18" s="241" t="s">
         <v>264</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -17242,7 +17242,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H18,I18,J18),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>M</v>
       </c>
-      <c r="M18" s="243" t="s">
+      <c r="M18" s="242" t="s">
         <v>326</v>
       </c>
       <c r="N18" s="21">
@@ -18526,7 +18526,7 @@
       <c r="D38" s="239" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="241" t="s">
+      <c r="E38" s="243" t="s">
         <v>234</v>
       </c>
       <c r="F38" s="239" t="s">
@@ -18597,7 +18597,7 @@
       <c r="D39" s="239" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="241" t="s">
+      <c r="E39" s="243" t="s">
         <v>234</v>
       </c>
       <c r="F39" s="239" t="s">
@@ -20004,7 +20004,7 @@
         <f>IFERROR(VLOOKUP(CONCATENATE(H60,I60,J60),'Task Priority (TP)'!$P:$Q,2,FALSE),"")</f>
         <v>H</v>
       </c>
-      <c r="M60" s="243" t="s">
+      <c r="M60" s="242" t="s">
         <v>280</v>
       </c>
       <c r="N60" s="21">
@@ -20117,7 +20117,7 @@
       <c r="C62" s="90">
         <v>53</v>
       </c>
-      <c r="D62" s="244" t="s">
+      <c r="D62" s="243" t="s">
         <v>297</v>
       </c>
       <c r="E62" s="239" t="s">
@@ -20178,7 +20178,7 @@
       <c r="C63" s="90">
         <v>54</v>
       </c>
-      <c r="D63" s="244" t="s">
+      <c r="D63" s="243" t="s">
         <v>297</v>
       </c>
       <c r="E63" s="239" t="s">
@@ -20237,7 +20237,7 @@
         <v>5.5000000000000003E-8</v>
       </c>
       <c r="C64" s="90"/>
-      <c r="D64" s="244"/>
+      <c r="D64" s="243"/>
       <c r="E64" s="239"/>
       <c r="F64" s="239"/>
       <c r="G64" s="2" t="s">
@@ -20284,7 +20284,7 @@
         <v>5.6000000000000005E-8</v>
       </c>
       <c r="C65" s="90"/>
-      <c r="D65" s="244"/>
+      <c r="D65" s="243"/>
       <c r="E65" s="239"/>
       <c r="F65" s="239"/>
       <c r="G65" s="2" t="s">
@@ -24902,11 +24902,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="B1" s="300"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="302"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="301"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31">
         <f>'[2]FMEA_system_sub-system_comp-1'!D1:Q1</f>
@@ -24914,11 +24914,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="305"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="304"/>
       <c r="G2" s="33" t="s">
         <v>26</v>
       </c>
@@ -24928,23 +24928,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.1" customHeight="1">
-      <c r="B3" s="306"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="308"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="307"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="37" customFormat="1" ht="11.25">
-      <c r="B4" s="309"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
